--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5093,17 +5093,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>000-000</t>
         </is>
       </c>
       <c r="E289" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">פיילוט </t>
+          <t>Milca Hanukoglu</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Ganit Goren</t>
+          <t>Noa Shultz</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -5129,6 +5129,11 @@
       <c r="K289" t="inlineStr">
         <is>
           <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>Working_ok</t>
         </is>
       </c>
     </row>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30501D3-A82C-4002-9F93-9DBF7C9C0E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43563CE6-7B19-4948-96DC-F8E6990B373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978FEF7-C895-4367-8C9D-F5680EAF08CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C334AD7-2F7E-4496-874B-B1999F1A5196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C334AD7-2F7E-4496-874B-B1999F1A5196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA07981-376E-47E5-AD81-FAA108138EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA07981-376E-47E5-AD81-FAA108138EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE90B85-EE34-4672-A963-65AFB1CB0A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE90B85-EE34-4672-A963-65AFB1CB0A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D92D9-B56B-49BE-B341-A3F100454E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D92D9-B56B-49BE-B341-A3F100454E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514FADC-E8B5-4FDF-9A98-FB064A93497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1EB07-A9FD-4012-9241-E4ABA653810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA000F7-516F-47D9-803A-EAC2D483B604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="373">
   <si>
     <t>acount</t>
   </si>
@@ -1142,6 +1142,9 @@
   </si>
   <si>
     <t>** E - Experimental group</t>
+  </si>
+  <si>
+    <t>messages</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1573,7 +1576,7 @@
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,8 +1613,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>132607</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>608563</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>129098</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>125785</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>523678</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>994670</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>737460</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>738266</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>441626</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>663230</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>951446</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>594572</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>243153</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>797463</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>775348</v>
       </c>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA000F7-516F-47D9-803A-EAC2D483B604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C799DDF4-7028-4C12-A704-74B1EDEF905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="375">
   <si>
     <t>acount</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Patient_Status</t>
   </si>
   <si>
+    <t>messages</t>
+  </si>
+  <si>
     <t>B97N</t>
   </si>
   <si>
@@ -994,6 +997,12 @@
     <t>H3ZN</t>
   </si>
   <si>
+    <t>00-000</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
     <t>KM2Z</t>
   </si>
   <si>
@@ -1142,9 +1151,6 @@
   </si>
   <si>
     <t>** E - Experimental group</t>
-  </si>
-  <si>
-    <t>messages</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1568,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1620,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1622,37 +1628,37 @@
         <v>132607</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1660,37 +1666,37 @@
         <v>608563</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1698,10 +1704,10 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1709,10 +1715,10 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1720,10 +1726,10 @@
         <v>523678</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1731,10 +1737,10 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1742,10 +1748,10 @@
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1753,10 +1759,10 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1764,10 +1770,10 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1775,10 +1781,10 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1786,10 +1792,10 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1797,10 +1803,10 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1808,10 +1814,10 @@
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1819,10 +1825,10 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1830,10 +1836,10 @@
         <v>775348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1841,10 +1847,10 @@
         <v>559121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1852,10 +1858,10 @@
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1863,10 +1869,10 @@
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1874,10 +1880,10 @@
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1885,10 +1891,10 @@
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1896,10 +1902,10 @@
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1907,10 +1913,10 @@
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1918,10 +1924,10 @@
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1929,10 +1935,10 @@
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1940,10 +1946,10 @@
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1951,10 +1957,10 @@
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1962,10 +1968,10 @@
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1973,10 +1979,10 @@
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1984,10 +1990,10 @@
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1995,10 +2001,10 @@
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2006,10 +2012,10 @@
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2017,10 +2023,10 @@
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2028,10 +2034,10 @@
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2039,10 +2045,10 @@
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2050,10 +2056,10 @@
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2061,10 +2067,10 @@
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2072,10 +2078,10 @@
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2083,10 +2089,10 @@
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2094,10 +2100,10 @@
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2105,10 +2111,10 @@
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2116,10 +2122,10 @@
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2127,10 +2133,10 @@
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2138,10 +2144,10 @@
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2149,10 +2155,10 @@
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2160,10 +2166,10 @@
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2171,10 +2177,10 @@
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2182,10 +2188,10 @@
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2193,10 +2199,10 @@
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2204,10 +2210,10 @@
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2215,10 +2221,10 @@
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2226,10 +2232,10 @@
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2237,10 +2243,10 @@
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2248,10 +2254,10 @@
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2259,10 +2265,10 @@
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2270,10 +2276,10 @@
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2281,10 +2287,10 @@
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2292,10 +2298,10 @@
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2303,10 +2309,10 @@
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2314,10 +2320,10 @@
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2325,10 +2331,10 @@
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2336,10 +2342,10 @@
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2347,10 +2353,10 @@
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2358,10 +2364,10 @@
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2369,10 +2375,10 @@
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2380,10 +2386,10 @@
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2391,10 +2397,10 @@
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2402,10 +2408,10 @@
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2413,10 +2419,10 @@
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2424,10 +2430,10 @@
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2435,10 +2441,10 @@
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2446,10 +2452,10 @@
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2457,10 +2463,10 @@
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2468,10 +2474,10 @@
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2479,10 +2485,10 @@
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2490,10 +2496,10 @@
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2501,10 +2507,10 @@
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2512,10 +2518,10 @@
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2523,10 +2529,10 @@
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2534,10 +2540,10 @@
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2545,10 +2551,10 @@
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2556,10 +2562,10 @@
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2567,10 +2573,10 @@
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2578,10 +2584,10 @@
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2589,10 +2595,10 @@
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2600,10 +2606,10 @@
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2611,10 +2617,10 @@
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2622,10 +2628,10 @@
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2633,10 +2639,10 @@
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2644,10 +2650,10 @@
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2655,10 +2661,10 @@
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2666,10 +2672,10 @@
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2677,10 +2683,10 @@
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2688,10 +2694,10 @@
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2699,10 +2705,10 @@
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2710,10 +2716,10 @@
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2721,10 +2727,10 @@
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2732,10 +2738,10 @@
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2743,10 +2749,10 @@
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2754,10 +2760,10 @@
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2765,10 +2771,10 @@
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2776,10 +2782,10 @@
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2787,10 +2793,10 @@
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2798,10 +2804,10 @@
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2809,10 +2815,10 @@
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2820,10 +2826,10 @@
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2831,10 +2837,10 @@
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2842,10 +2848,10 @@
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2853,10 +2859,10 @@
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2864,10 +2870,10 @@
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2875,10 +2881,10 @@
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2886,10 +2892,10 @@
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2897,10 +2903,10 @@
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2908,10 +2914,10 @@
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2919,10 +2925,10 @@
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2930,10 +2936,10 @@
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2941,10 +2947,10 @@
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2952,10 +2958,10 @@
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2963,10 +2969,10 @@
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2974,10 +2980,10 @@
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,10 +2991,10 @@
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2996,10 +3002,10 @@
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -3007,10 +3013,10 @@
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -3018,10 +3024,10 @@
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -3029,10 +3035,10 @@
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -3040,10 +3046,10 @@
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -3051,10 +3057,10 @@
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -3062,10 +3068,10 @@
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,10 +3079,10 @@
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -3084,10 +3090,10 @@
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -3095,10 +3101,10 @@
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -3106,10 +3112,10 @@
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,10 +3123,10 @@
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -3128,10 +3134,10 @@
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -3139,10 +3145,10 @@
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -3150,10 +3156,10 @@
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -3161,10 +3167,10 @@
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -3172,10 +3178,10 @@
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -3183,10 +3189,10 @@
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -3194,10 +3200,10 @@
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -3205,10 +3211,10 @@
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -3216,10 +3222,10 @@
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -3227,10 +3233,10 @@
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3238,10 +3244,10 @@
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -3249,10 +3255,10 @@
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -3260,10 +3266,10 @@
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -3271,10 +3277,10 @@
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -3282,10 +3288,10 @@
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -3293,10 +3299,10 @@
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -3304,10 +3310,10 @@
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -3315,10 +3321,10 @@
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -3326,37 +3332,37 @@
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D152" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -3364,34 +3370,34 @@
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" t="s">
+        <v>184</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>179</v>
+      </c>
+      <c r="H153" t="s">
+        <v>180</v>
+      </c>
+      <c r="I153" t="s">
+        <v>181</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
         <v>182</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D153" t="s">
-        <v>183</v>
-      </c>
-      <c r="E153" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>178</v>
-      </c>
-      <c r="H153" t="s">
-        <v>179</v>
-      </c>
-      <c r="I153" t="s">
-        <v>180</v>
-      </c>
-      <c r="J153" t="s">
-        <v>20</v>
-      </c>
-      <c r="K153" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -3399,10 +3405,10 @@
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -3410,34 +3416,34 @@
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D155" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I155" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -3445,34 +3451,34 @@
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D156" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I156" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -3480,10 +3486,10 @@
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -3491,10 +3497,10 @@
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -3502,34 +3508,34 @@
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D159" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -3537,10 +3543,10 @@
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -3548,10 +3554,10 @@
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -3559,34 +3565,34 @@
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D162" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H162" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I162" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -3594,34 +3600,34 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D163" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I163" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -3629,34 +3635,34 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D164" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H164" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I164" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J164" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -3664,10 +3670,10 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -3675,10 +3681,10 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -3686,10 +3692,10 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -3697,10 +3703,10 @@
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -3708,10 +3714,10 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -3719,10 +3725,10 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -3730,10 +3736,10 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -3741,10 +3747,10 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -3752,10 +3758,10 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -3763,10 +3769,10 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -3774,10 +3780,10 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -3785,10 +3791,10 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3796,10 +3802,10 @@
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -3807,10 +3813,10 @@
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3818,10 +3824,10 @@
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3829,10 +3835,10 @@
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3840,10 +3846,10 @@
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3851,10 +3857,10 @@
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3862,10 +3868,10 @@
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3873,10 +3879,10 @@
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3884,10 +3890,10 @@
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3895,10 +3901,10 @@
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3906,10 +3912,10 @@
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3917,10 +3923,10 @@
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -3928,10 +3934,10 @@
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3939,10 +3945,10 @@
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -3950,10 +3956,10 @@
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3961,10 +3967,10 @@
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3972,10 +3978,10 @@
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -3983,10 +3989,10 @@
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -3994,10 +4000,10 @@
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4005,10 +4011,10 @@
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4016,10 +4022,10 @@
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -4027,10 +4033,10 @@
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -4038,10 +4044,10 @@
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4049,10 +4055,10 @@
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -4060,10 +4066,10 @@
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -4071,10 +4077,10 @@
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4082,10 +4088,10 @@
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -4093,10 +4099,10 @@
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -4104,10 +4110,10 @@
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -4115,10 +4121,10 @@
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -4126,10 +4132,10 @@
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4137,10 +4143,10 @@
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -4148,10 +4154,10 @@
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4159,10 +4165,10 @@
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -4170,10 +4176,10 @@
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4181,10 +4187,10 @@
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -4192,10 +4198,10 @@
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -4203,10 +4209,10 @@
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -4214,10 +4220,10 @@
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -4225,10 +4231,10 @@
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -4236,10 +4242,10 @@
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -4247,10 +4253,10 @@
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -4258,10 +4264,10 @@
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -4269,10 +4275,10 @@
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -4280,10 +4286,10 @@
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -4291,10 +4297,10 @@
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -4302,10 +4308,10 @@
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -4313,10 +4319,10 @@
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -4324,10 +4330,10 @@
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -4335,10 +4341,10 @@
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -4346,10 +4352,10 @@
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -4357,10 +4363,10 @@
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -4368,10 +4374,10 @@
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -4379,10 +4385,10 @@
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4390,10 +4396,10 @@
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -4401,10 +4407,10 @@
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -4412,10 +4418,10 @@
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -4423,10 +4429,10 @@
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -4434,10 +4440,10 @@
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -4445,10 +4451,10 @@
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -4456,10 +4462,10 @@
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -4467,10 +4473,10 @@
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -4478,10 +4484,10 @@
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -4489,10 +4495,10 @@
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -4500,10 +4506,10 @@
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4511,10 +4517,10 @@
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -4522,10 +4528,10 @@
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4533,10 +4539,10 @@
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4544,10 +4550,10 @@
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4555,10 +4561,10 @@
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4566,10 +4572,10 @@
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -4577,10 +4583,10 @@
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4588,10 +4594,10 @@
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -4599,10 +4605,10 @@
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4610,10 +4616,10 @@
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4621,10 +4627,10 @@
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4632,10 +4638,10 @@
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -4643,10 +4649,10 @@
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4654,10 +4660,10 @@
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4665,10 +4671,10 @@
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4676,10 +4682,10 @@
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4687,10 +4693,10 @@
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4698,10 +4704,10 @@
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4709,10 +4715,10 @@
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -4720,10 +4726,10 @@
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -4731,10 +4737,10 @@
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4742,10 +4748,10 @@
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -4753,10 +4759,10 @@
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -4764,10 +4770,10 @@
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -4775,10 +4781,10 @@
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -4786,10 +4792,10 @@
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -4797,10 +4803,10 @@
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -4808,10 +4814,10 @@
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -4819,10 +4825,10 @@
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -4830,10 +4836,10 @@
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -4841,10 +4847,10 @@
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -4852,10 +4858,10 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -4863,10 +4869,10 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -4874,10 +4880,10 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -4885,10 +4891,10 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -4896,16 +4902,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D277" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -4913,16 +4919,34 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D278" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>320</v>
+        <v>17</v>
+      </c>
+      <c r="F278" t="s">
+        <v>17</v>
+      </c>
+      <c r="G278" t="s">
+        <v>324</v>
+      </c>
+      <c r="H278" t="s">
+        <v>203</v>
+      </c>
+      <c r="I278" t="s">
+        <v>204</v>
+      </c>
+      <c r="J278" t="s">
+        <v>205</v>
+      </c>
+      <c r="K278" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -4930,37 +4954,37 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D279" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F279" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H279" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I279" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J279" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L279" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -4968,34 +4992,34 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D280" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F280" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G280" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H280" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I280" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -5003,34 +5027,34 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D281" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F281" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G281" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H281" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I281" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J281" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K281" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -5038,34 +5062,34 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D282" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F282" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G282" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H282" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I282" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J282" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K282" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -5073,34 +5097,34 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D283" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G283" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H283" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I283" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J283" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -5108,34 +5132,34 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D284" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G284" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H284" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I284" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J284" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K284" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -5143,34 +5167,34 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D285" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G285" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H285" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I285" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J285" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K285" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -5178,37 +5202,37 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D286" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G286" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I286" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J286" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K286" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L286" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -5216,16 +5240,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D287" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -5233,16 +5257,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D288" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -5250,29 +5274,29 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D289" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H289" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I289" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J289" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -5280,34 +5304,34 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D290" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G290" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H290" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I290" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J290" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L290" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -5315,16 +5339,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D291" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -5332,34 +5356,34 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D292" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G292" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H292" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I292" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L292" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -5367,34 +5391,34 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D293" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F293" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G293" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H293" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I293" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J293" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -5402,37 +5426,37 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D294" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F294" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G294" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H294" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I294" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J294" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K294" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L294" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
@@ -5440,37 +5464,37 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D295" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F295" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H295" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I295" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J295" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K295" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L295" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -5478,34 +5502,34 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D296" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F296" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G296" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H296" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I296" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J296" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K296" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -5513,34 +5537,34 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D297" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F297" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H297" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I297" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J297" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K297" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -5548,34 +5572,34 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D298" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F298" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G298" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I298" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J298" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K298" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -5583,34 +5607,34 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D299" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F299" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H299" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I299" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J299" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K299" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -5618,16 +5642,16 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D300" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
@@ -5635,37 +5659,37 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D301" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G301" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H301" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I301" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J301" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L301" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5691,10 +5715,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5702,7 +5726,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5710,7 +5734,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5718,7 +5742,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5726,7 +5750,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5734,7 +5758,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5742,7 +5766,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5750,7 +5774,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5758,7 +5782,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5766,7 +5790,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5774,7 +5798,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5782,7 +5806,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5790,7 +5814,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5798,7 +5822,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5806,7 +5830,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5814,7 +5838,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5835,10 +5859,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5846,7 +5870,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5854,7 +5878,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5862,7 +5886,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5870,7 +5894,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5878,7 +5902,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5886,7 +5910,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5894,7 +5918,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5902,7 +5926,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5910,7 +5934,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5918,7 +5942,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5945,10 +5969,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5956,13 +5980,13 @@
         <v>132607</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -5970,10 +5994,10 @@
         <v>608563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5981,10 +6005,10 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5992,10 +6016,10 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -6006,7 +6030,7 @@
         <v>6270</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -6014,10 +6038,10 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6025,10 +6049,10 @@
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -6036,10 +6060,10 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -6047,10 +6071,10 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -6058,10 +6082,10 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -6069,10 +6093,10 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -6080,10 +6104,10 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -6091,10 +6115,10 @@
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -6102,10 +6126,10 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -6113,10 +6137,10 @@
         <v>309014</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6124,10 +6148,10 @@
         <v>590307</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6135,10 +6159,10 @@
         <v>847633</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6146,10 +6170,10 @@
         <v>538067</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6157,10 +6181,10 @@
         <v>889142</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6168,10 +6192,10 @@
         <v>988429</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6179,10 +6203,10 @@
         <v>159320</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6190,10 +6214,10 @@
         <v>985070</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6201,10 +6225,10 @@
         <v>872696</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6212,10 +6236,10 @@
         <v>645107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6223,10 +6247,10 @@
         <v>213190</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6234,10 +6258,10 @@
         <v>170406</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6245,10 +6269,10 @@
         <v>588655</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6256,10 +6280,10 @@
         <v>441310</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6267,10 +6291,10 @@
         <v>312435</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6278,10 +6302,10 @@
         <v>505418</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C799DDF4-7028-4C12-A704-74B1EDEF905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7023E79-C820-464D-8B99-6E807322F211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,6 +1708,9 @@
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7023E79-C820-464D-8B99-6E807322F211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89BA7E-94D7-41D1-94E9-09B96C2D794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,9 +1708,6 @@
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89BA7E-94D7-41D1-94E9-09B96C2D794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E09D89-2BEA-4592-AFA4-83EF1A694AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="377">
   <si>
     <t>acount</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Working_ok</t>
   </si>
   <si>
+    <t>לבדוק למה לא מתרגלת כיווץ והרפיית שרירים|לבדוק למה לא מתרגלת כיווץ והרפיית שרירים|לבדוק למה לא מתרגלת כיווץ והרפיית שרירים</t>
+  </si>
+  <si>
     <t>NL3Z</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>2024-08-14</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
     <t>01V5</t>
   </si>
   <si>
@@ -622,6 +628,9 @@
     <t>01-042</t>
   </si>
   <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
     <t>MMI0</t>
   </si>
   <si>
@@ -632,9 +641,6 @@
   </si>
   <si>
     <t>01-043</t>
-  </si>
-  <si>
-    <t>2023-08-24</t>
   </si>
   <si>
     <t>2023-11-25</t>
@@ -1568,7 +1574,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1660,19 +1666,22 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>608563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1690,13 +1699,13 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1704,7 +1713,7 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -1715,7 +1724,7 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -1726,7 +1735,7 @@
         <v>523678</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -1737,7 +1746,7 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -1748,7 +1757,7 @@
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -1759,7 +1768,7 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -1770,7 +1779,7 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
@@ -1781,7 +1790,7 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -1792,7 +1801,7 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -1803,7 +1812,7 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -1814,7 +1823,7 @@
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -1825,7 +1834,7 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
@@ -1836,7 +1845,7 @@
         <v>775348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1847,7 +1856,7 @@
         <v>559121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1858,7 +1867,7 @@
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1869,7 +1878,7 @@
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1880,7 +1889,7 @@
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1891,7 +1900,7 @@
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -1902,7 +1911,7 @@
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1913,7 +1922,7 @@
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
@@ -1924,7 +1933,7 @@
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -1935,7 +1944,7 @@
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -1946,7 +1955,7 @@
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1957,7 +1966,7 @@
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -1968,7 +1977,7 @@
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1979,7 +1988,7 @@
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
@@ -1990,7 +1999,7 @@
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
@@ -2001,7 +2010,7 @@
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -2012,7 +2021,7 @@
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
@@ -2023,7 +2032,7 @@
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -2034,7 +2043,7 @@
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -2045,7 +2054,7 @@
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -2056,7 +2065,7 @@
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -2067,7 +2076,7 @@
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -2078,7 +2087,7 @@
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -2089,7 +2098,7 @@
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
@@ -2100,7 +2109,7 @@
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
@@ -2111,7 +2120,7 @@
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
@@ -2122,7 +2131,7 @@
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
@@ -2133,7 +2142,7 @@
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
@@ -2144,7 +2153,7 @@
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
@@ -2155,7 +2164,7 @@
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
@@ -2166,7 +2175,7 @@
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
@@ -2177,7 +2186,7 @@
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
@@ -2188,7 +2197,7 @@
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
@@ -2199,7 +2208,7 @@
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
@@ -2210,7 +2219,7 @@
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
@@ -2221,7 +2230,7 @@
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
@@ -2232,7 +2241,7 @@
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
@@ -2243,7 +2252,7 @@
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
@@ -2254,7 +2263,7 @@
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
@@ -2265,7 +2274,7 @@
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
@@ -2276,7 +2285,7 @@
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
@@ -2287,7 +2296,7 @@
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
@@ -2298,7 +2307,7 @@
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
@@ -2309,7 +2318,7 @@
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
@@ -2320,7 +2329,7 @@
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
@@ -2331,7 +2340,7 @@
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
@@ -2342,7 +2351,7 @@
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
@@ -2353,7 +2362,7 @@
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
@@ -2364,7 +2373,7 @@
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
@@ -2375,7 +2384,7 @@
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
@@ -2386,7 +2395,7 @@
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
@@ -2397,7 +2406,7 @@
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
@@ -2408,7 +2417,7 @@
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
@@ -2419,7 +2428,7 @@
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
@@ -2430,7 +2439,7 @@
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
@@ -2441,7 +2450,7 @@
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
@@ -2452,7 +2461,7 @@
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
@@ -2463,7 +2472,7 @@
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
@@ -2474,7 +2483,7 @@
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
@@ -2485,7 +2494,7 @@
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
@@ -2496,7 +2505,7 @@
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
@@ -2507,7 +2516,7 @@
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
@@ -2518,7 +2527,7 @@
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
@@ -2529,7 +2538,7 @@
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
@@ -2540,7 +2549,7 @@
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
@@ -2551,7 +2560,7 @@
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
@@ -2562,7 +2571,7 @@
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
@@ -2573,7 +2582,7 @@
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -2584,7 +2593,7 @@
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
@@ -2595,7 +2604,7 @@
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
@@ -2606,7 +2615,7 @@
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
@@ -2617,7 +2626,7 @@
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
@@ -2628,7 +2637,7 @@
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
@@ -2639,7 +2648,7 @@
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2650,7 +2659,7 @@
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2661,7 +2670,7 @@
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2672,7 +2681,7 @@
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
@@ -2683,7 +2692,7 @@
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
@@ -2694,7 +2703,7 @@
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -2705,7 +2714,7 @@
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
@@ -2716,7 +2725,7 @@
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
@@ -2727,7 +2736,7 @@
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
@@ -2738,7 +2747,7 @@
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
@@ -2749,7 +2758,7 @@
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
@@ -2760,7 +2769,7 @@
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
@@ -2771,7 +2780,7 @@
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
@@ -2782,7 +2791,7 @@
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -2793,7 +2802,7 @@
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -2804,7 +2813,7 @@
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -2815,7 +2824,7 @@
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -2826,7 +2835,7 @@
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -2837,7 +2846,7 @@
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
@@ -2848,7 +2857,7 @@
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
@@ -2859,7 +2868,7 @@
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
@@ -2870,7 +2879,7 @@
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
@@ -2881,7 +2890,7 @@
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
@@ -2892,7 +2901,7 @@
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
@@ -2903,7 +2912,7 @@
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
@@ -2914,7 +2923,7 @@
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
@@ -2925,7 +2934,7 @@
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
@@ -2936,7 +2945,7 @@
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
@@ -2947,7 +2956,7 @@
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
@@ -2958,7 +2967,7 @@
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
@@ -2969,7 +2978,7 @@
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
@@ -2980,7 +2989,7 @@
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
@@ -2991,7 +3000,7 @@
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
@@ -3002,7 +3011,7 @@
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
@@ -3013,7 +3022,7 @@
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
@@ -3024,7 +3033,7 @@
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
@@ -3035,7 +3044,7 @@
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
@@ -3046,7 +3055,7 @@
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
@@ -3057,7 +3066,7 @@
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
@@ -3068,7 +3077,7 @@
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
@@ -3079,7 +3088,7 @@
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
@@ -3090,7 +3099,7 @@
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
@@ -3101,7 +3110,7 @@
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
@@ -3112,7 +3121,7 @@
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
@@ -3123,7 +3132,7 @@
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
@@ -3134,7 +3143,7 @@
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
@@ -3145,7 +3154,7 @@
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
@@ -3156,7 +3165,7 @@
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
@@ -3167,7 +3176,7 @@
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
@@ -3178,7 +3187,7 @@
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
@@ -3189,7 +3198,7 @@
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
@@ -3200,7 +3209,7 @@
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
@@ -3211,7 +3220,7 @@
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
@@ -3222,7 +3231,7 @@
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
@@ -3233,7 +3242,7 @@
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
@@ -3244,7 +3253,7 @@
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
@@ -3255,7 +3264,7 @@
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
@@ -3266,7 +3275,7 @@
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
@@ -3277,7 +3286,7 @@
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
@@ -3288,7 +3297,7 @@
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
@@ -3299,7 +3308,7 @@
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
@@ -3310,7 +3319,7 @@
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
@@ -3321,7 +3330,7 @@
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
@@ -3332,13 +3341,13 @@
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D152" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E152" t="s">
         <v>17</v>
@@ -3347,19 +3356,19 @@
         <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I152" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L152" t="s">
         <v>23</v>
@@ -3370,13 +3379,13 @@
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D153" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
@@ -3385,19 +3394,19 @@
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I153" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J153" t="s">
         <v>21</v>
       </c>
       <c r="K153" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -3405,10 +3414,10 @@
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -3416,13 +3425,13 @@
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E155" t="s">
         <v>17</v>
@@ -3431,19 +3440,19 @@
         <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I155" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J155" t="s">
         <v>21</v>
       </c>
       <c r="K155" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -3451,13 +3460,13 @@
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D156" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E156" t="s">
         <v>17</v>
@@ -3466,19 +3475,19 @@
         <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I156" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J156" t="s">
         <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -3486,10 +3495,10 @@
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -3497,10 +3506,10 @@
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -3508,13 +3517,13 @@
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E159" t="s">
         <v>17</v>
@@ -3523,19 +3532,19 @@
         <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I159" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J159" t="s">
         <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -3543,10 +3552,10 @@
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -3554,10 +3563,10 @@
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -3565,13 +3574,13 @@
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E162" t="s">
         <v>17</v>
@@ -3580,19 +3589,19 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H162" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I162" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J162" t="s">
         <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -3600,13 +3609,13 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D163" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -3615,19 +3624,19 @@
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H163" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I163" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -3635,13 +3644,13 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -3650,19 +3659,19 @@
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H164" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I164" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J164" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K164" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -3670,10 +3679,10 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -3681,10 +3690,10 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -3692,10 +3701,10 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -3703,10 +3712,10 @@
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -3714,10 +3723,10 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -3725,10 +3734,10 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -3736,10 +3745,10 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -3747,10 +3756,10 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -3758,10 +3767,10 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -3769,10 +3778,10 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -3780,10 +3789,10 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -3791,10 +3800,10 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3802,10 +3811,10 @@
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -3813,10 +3822,10 @@
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3824,10 +3833,10 @@
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3835,10 +3844,10 @@
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3846,10 +3855,10 @@
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3857,10 +3866,10 @@
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3868,10 +3877,10 @@
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3879,10 +3888,10 @@
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3890,10 +3899,10 @@
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3901,10 +3910,10 @@
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3912,10 +3921,10 @@
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3923,10 +3932,10 @@
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -3934,10 +3943,10 @@
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3945,10 +3954,10 @@
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -3956,10 +3965,10 @@
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3967,10 +3976,10 @@
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3978,10 +3987,10 @@
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -3989,10 +3998,10 @@
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -4000,10 +4009,10 @@
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4011,10 +4020,10 @@
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4022,10 +4031,10 @@
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -4033,10 +4042,10 @@
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -4044,10 +4053,10 @@
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4055,10 +4064,10 @@
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -4066,10 +4075,10 @@
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -4077,10 +4086,10 @@
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4088,10 +4097,10 @@
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -4099,10 +4108,10 @@
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -4110,10 +4119,10 @@
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -4121,10 +4130,10 @@
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -4132,10 +4141,10 @@
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4143,10 +4152,10 @@
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -4154,10 +4163,10 @@
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4165,10 +4174,10 @@
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -4176,10 +4185,10 @@
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4187,10 +4196,10 @@
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -4198,10 +4207,10 @@
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -4209,10 +4218,10 @@
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -4220,10 +4229,10 @@
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -4231,10 +4240,10 @@
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -4242,10 +4251,10 @@
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -4253,10 +4262,10 @@
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -4264,10 +4273,10 @@
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -4275,10 +4284,10 @@
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -4286,10 +4295,10 @@
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -4297,10 +4306,10 @@
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -4308,10 +4317,10 @@
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -4319,10 +4328,10 @@
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -4330,10 +4339,10 @@
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -4341,10 +4350,10 @@
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -4352,10 +4361,10 @@
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -4363,10 +4372,10 @@
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -4374,10 +4383,10 @@
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -4385,10 +4394,10 @@
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4396,10 +4405,10 @@
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -4407,10 +4416,10 @@
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -4418,10 +4427,10 @@
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -4429,10 +4438,10 @@
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -4440,10 +4449,10 @@
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -4451,10 +4460,10 @@
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -4462,10 +4471,10 @@
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -4473,10 +4482,10 @@
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -4484,10 +4493,10 @@
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -4495,10 +4504,10 @@
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -4506,10 +4515,10 @@
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4517,10 +4526,10 @@
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -4528,10 +4537,10 @@
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4539,10 +4548,10 @@
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4550,10 +4559,10 @@
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4561,10 +4570,10 @@
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4572,10 +4581,10 @@
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -4583,10 +4592,10 @@
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4594,10 +4603,10 @@
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -4605,10 +4614,10 @@
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4616,10 +4625,10 @@
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4627,10 +4636,10 @@
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4638,10 +4647,10 @@
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -4649,10 +4658,10 @@
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4660,10 +4669,10 @@
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4671,10 +4680,10 @@
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4682,10 +4691,10 @@
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4693,10 +4702,10 @@
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4704,10 +4713,10 @@
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4715,10 +4724,10 @@
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -4726,10 +4735,10 @@
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -4737,10 +4746,10 @@
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4748,10 +4757,10 @@
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -4759,10 +4768,10 @@
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -4770,10 +4779,10 @@
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -4781,10 +4790,10 @@
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -4792,10 +4801,10 @@
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -4803,10 +4812,10 @@
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -4814,10 +4823,10 @@
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -4825,10 +4834,10 @@
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -4836,10 +4845,10 @@
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -4847,10 +4856,10 @@
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -4858,10 +4867,10 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -4869,10 +4878,10 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -4880,10 +4889,10 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -4891,10 +4900,10 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -4902,16 +4911,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D277" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -4919,13 +4928,13 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D278" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>17</v>
@@ -4934,19 +4943,19 @@
         <v>17</v>
       </c>
       <c r="G278" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H278" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I278" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J278" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K278" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -4954,13 +4963,13 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D279" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>17</v>
@@ -4969,19 +4978,19 @@
         <v>17</v>
       </c>
       <c r="G279" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H279" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I279" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J279" t="s">
         <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L279" t="s">
         <v>23</v>
@@ -4992,13 +5001,13 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D280" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>17</v>
@@ -5007,19 +5016,19 @@
         <v>17</v>
       </c>
       <c r="G280" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H280" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I280" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J280" t="s">
         <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -5027,13 +5036,13 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D281" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>17</v>
@@ -5042,19 +5051,19 @@
         <v>17</v>
       </c>
       <c r="G281" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H281" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I281" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
       </c>
       <c r="K281" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -5062,13 +5071,13 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D282" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>17</v>
@@ -5077,19 +5086,19 @@
         <v>17</v>
       </c>
       <c r="G282" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H282" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I282" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J282" t="s">
         <v>21</v>
       </c>
       <c r="K282" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -5097,13 +5106,13 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D283" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>17</v>
@@ -5112,19 +5121,19 @@
         <v>17</v>
       </c>
       <c r="G283" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H283" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I283" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J283" t="s">
         <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -5132,13 +5141,13 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D284" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>17</v>
@@ -5147,19 +5156,19 @@
         <v>17</v>
       </c>
       <c r="G284" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H284" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I284" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J284" t="s">
         <v>21</v>
       </c>
       <c r="K284" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -5167,13 +5176,13 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D285" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>17</v>
@@ -5182,19 +5191,19 @@
         <v>17</v>
       </c>
       <c r="G285" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H285" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I285" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J285" t="s">
         <v>21</v>
       </c>
       <c r="K285" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -5202,13 +5211,13 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D286" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>17</v>
@@ -5217,22 +5226,22 @@
         <v>17</v>
       </c>
       <c r="G286" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H286" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I286" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J286" t="s">
         <v>21</v>
       </c>
       <c r="K286" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L286" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -5240,16 +5249,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D287" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -5257,16 +5266,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D288" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -5274,29 +5283,29 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D289" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H289" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I289" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J289" t="s">
         <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -5304,34 +5313,34 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D290" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G290" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H290" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I290" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J290" t="s">
         <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L290" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -5339,16 +5348,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D291" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -5356,34 +5365,34 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D292" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G292" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H292" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I292" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J292" t="s">
         <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L292" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -5391,13 +5400,13 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D293" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>17</v>
@@ -5406,19 +5415,19 @@
         <v>17</v>
       </c>
       <c r="G293" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H293" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I293" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J293" t="s">
         <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -5426,34 +5435,34 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D294" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F294" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G294" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H294" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I294" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
       </c>
       <c r="K294" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L294" t="s">
         <v>23</v>
@@ -5464,13 +5473,13 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D295" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>17</v>
@@ -5479,22 +5488,22 @@
         <v>17</v>
       </c>
       <c r="G295" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H295" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I295" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
       </c>
       <c r="K295" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L295" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -5502,13 +5511,13 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D296" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>17</v>
@@ -5517,19 +5526,19 @@
         <v>17</v>
       </c>
       <c r="G296" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H296" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I296" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J296" t="s">
         <v>21</v>
       </c>
       <c r="K296" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -5537,13 +5546,13 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D297" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>17</v>
@@ -5552,19 +5561,19 @@
         <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H297" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I297" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
       </c>
       <c r="K297" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -5572,13 +5581,13 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D298" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>17</v>
@@ -5587,19 +5596,19 @@
         <v>17</v>
       </c>
       <c r="G298" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H298" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I298" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
       </c>
       <c r="K298" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -5607,13 +5616,13 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D299" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>17</v>
@@ -5622,19 +5631,19 @@
         <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H299" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I299" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J299" t="s">
         <v>21</v>
       </c>
       <c r="K299" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -5642,16 +5651,16 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D300" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
@@ -5659,37 +5668,37 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D301" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G301" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H301" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I301" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J301" t="s">
         <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L301" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5715,10 +5724,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5726,7 +5735,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5734,7 +5743,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5742,7 +5751,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5750,7 +5759,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5758,7 +5767,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5766,7 +5775,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5774,7 +5783,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5782,7 +5791,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5790,7 +5799,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5798,7 +5807,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5806,7 +5815,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5814,7 +5823,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5822,7 +5831,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5830,7 +5839,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5838,7 +5847,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5859,10 +5868,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5870,7 +5879,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5878,7 +5887,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5886,7 +5895,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5894,7 +5903,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5902,7 +5911,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5910,7 +5919,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5918,7 +5927,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5926,7 +5935,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5934,7 +5943,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5942,7 +5951,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5969,10 +5978,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5986,7 +5995,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -5994,7 +6003,7 @@
         <v>608563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -6005,7 +6014,7 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -6016,7 +6025,7 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -6038,7 +6047,7 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -6049,7 +6058,7 @@
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -6060,7 +6069,7 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -6071,7 +6080,7 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -6082,7 +6091,7 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -6093,7 +6102,7 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -6104,7 +6113,7 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -6115,7 +6124,7 @@
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -6126,7 +6135,7 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -6137,10 +6146,10 @@
         <v>309014</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6148,10 +6157,10 @@
         <v>590307</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6159,10 +6168,10 @@
         <v>847633</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6170,10 +6179,10 @@
         <v>538067</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6181,10 +6190,10 @@
         <v>889142</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6192,10 +6201,10 @@
         <v>988429</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6203,10 +6212,10 @@
         <v>159320</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6214,10 +6223,10 @@
         <v>985070</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6225,10 +6234,10 @@
         <v>872696</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6236,10 +6245,10 @@
         <v>645107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6247,10 +6256,10 @@
         <v>213190</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6258,10 +6267,10 @@
         <v>170406</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6269,10 +6278,10 @@
         <v>588655</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6280,10 +6289,10 @@
         <v>441310</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6291,10 +6300,10 @@
         <v>312435</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6302,10 +6311,10 @@
         <v>505418</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E09D89-2BEA-4592-AFA4-83EF1A694AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38E39C4-F16C-49AD-A455-80822048090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38E39C4-F16C-49AD-A455-80822048090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFAC2F1-E927-44DD-BB32-54D78522C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFAC2F1-E927-44DD-BB32-54D78522C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861C4CE-ED01-4F50-8A69-A53802544393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861C4CE-ED01-4F50-8A69-A53802544393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDF296-DC08-41FB-A51C-E618178AB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDF296-DC08-41FB-A51C-E618178AB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974ABFFD-B047-4E34-BFDA-35EB3D74E8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1573,8 +1573,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974ABFFD-B047-4E34-BFDA-35EB3D74E8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF7BAF8-E6F1-4AC4-9267-C547DE0B0D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="378">
   <si>
     <t>acount</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>01-001</t>
+  </si>
+  <si>
+    <t>Milca Hanukoglu</t>
   </si>
   <si>
     <t>2024-05-16</t>
@@ -1573,8 +1576,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1684,7 +1687,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -1699,13 +1702,13 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1713,7 +1716,7 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -1724,7 +1727,7 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -1735,7 +1738,7 @@
         <v>523678</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -1746,7 +1749,7 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -1757,7 +1760,7 @@
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -1768,7 +1771,7 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -1779,7 +1782,7 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
@@ -1790,7 +1793,7 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -1801,7 +1804,7 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -1812,7 +1815,7 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -1823,7 +1826,7 @@
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -1834,7 +1837,7 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
@@ -1845,7 +1848,7 @@
         <v>775348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1856,7 +1859,7 @@
         <v>559121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1867,7 +1870,7 @@
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1878,7 +1881,7 @@
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1889,7 +1892,7 @@
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1900,7 +1903,7 @@
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -1911,7 +1914,7 @@
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1922,7 +1925,7 @@
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
@@ -1933,7 +1936,7 @@
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -1944,7 +1947,7 @@
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -1955,7 +1958,7 @@
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1966,7 +1969,7 @@
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -1977,7 +1980,7 @@
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1988,7 +1991,7 @@
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
@@ -1999,7 +2002,7 @@
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
@@ -2010,7 +2013,7 @@
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -2021,7 +2024,7 @@
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
@@ -2032,7 +2035,7 @@
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -2043,7 +2046,7 @@
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -2054,7 +2057,7 @@
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -2065,7 +2068,7 @@
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -2076,7 +2079,7 @@
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -2087,7 +2090,7 @@
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -2098,7 +2101,7 @@
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
@@ -2109,7 +2112,7 @@
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
@@ -2120,7 +2123,7 @@
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
@@ -2131,7 +2134,7 @@
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
@@ -2142,7 +2145,7 @@
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
@@ -2153,7 +2156,7 @@
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
@@ -2164,7 +2167,7 @@
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
@@ -2175,7 +2178,7 @@
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
@@ -2186,7 +2189,7 @@
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
@@ -2197,7 +2200,7 @@
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
@@ -2208,7 +2211,7 @@
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
@@ -2219,7 +2222,7 @@
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
@@ -2230,7 +2233,7 @@
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
@@ -2241,7 +2244,7 @@
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
@@ -2252,7 +2255,7 @@
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
@@ -2263,7 +2266,7 @@
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
@@ -2274,7 +2277,7 @@
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
@@ -2285,7 +2288,7 @@
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
@@ -2296,7 +2299,7 @@
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
@@ -2307,7 +2310,7 @@
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
@@ -2318,7 +2321,7 @@
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
@@ -2329,7 +2332,7 @@
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
@@ -2340,7 +2343,7 @@
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
@@ -2351,7 +2354,7 @@
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
@@ -2362,7 +2365,7 @@
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
@@ -2373,7 +2376,7 @@
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
@@ -2384,7 +2387,7 @@
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
@@ -2395,7 +2398,7 @@
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
@@ -2406,7 +2409,7 @@
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
@@ -2417,7 +2420,7 @@
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
@@ -2428,7 +2431,7 @@
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
@@ -2439,7 +2442,7 @@
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
@@ -2450,7 +2453,7 @@
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
@@ -2461,7 +2464,7 @@
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
@@ -2472,7 +2475,7 @@
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
@@ -2483,7 +2486,7 @@
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
@@ -2494,7 +2497,7 @@
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
@@ -2505,7 +2508,7 @@
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
@@ -2516,7 +2519,7 @@
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
@@ -2527,7 +2530,7 @@
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
@@ -2538,7 +2541,7 @@
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
@@ -2549,7 +2552,7 @@
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
@@ -2560,7 +2563,7 @@
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
@@ -2571,7 +2574,7 @@
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
@@ -2582,7 +2585,7 @@
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -2593,7 +2596,7 @@
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
@@ -2604,7 +2607,7 @@
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
@@ -2615,7 +2618,7 @@
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
@@ -2626,7 +2629,7 @@
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
@@ -2637,7 +2640,7 @@
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
@@ -2648,7 +2651,7 @@
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2659,7 +2662,7 @@
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2670,7 +2673,7 @@
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2681,7 +2684,7 @@
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
@@ -2692,7 +2695,7 @@
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
@@ -2703,7 +2706,7 @@
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -2714,7 +2717,7 @@
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
@@ -2725,7 +2728,7 @@
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
@@ -2736,7 +2739,7 @@
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
@@ -2747,7 +2750,7 @@
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
@@ -2758,7 +2761,7 @@
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
@@ -2769,7 +2772,7 @@
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
@@ -2780,7 +2783,7 @@
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
@@ -2791,7 +2794,7 @@
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -2802,7 +2805,7 @@
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -2813,7 +2816,7 @@
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -2824,7 +2827,7 @@
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -2835,7 +2838,7 @@
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -2846,7 +2849,7 @@
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
@@ -2857,7 +2860,7 @@
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
@@ -2868,7 +2871,7 @@
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
@@ -2879,7 +2882,7 @@
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
@@ -2890,7 +2893,7 @@
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
@@ -2901,7 +2904,7 @@
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
@@ -2912,7 +2915,7 @@
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
@@ -2923,7 +2926,7 @@
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
@@ -2934,7 +2937,7 @@
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
@@ -2945,7 +2948,7 @@
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
@@ -2956,7 +2959,7 @@
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
@@ -2967,7 +2970,7 @@
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
@@ -2978,7 +2981,7 @@
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
@@ -2989,7 +2992,7 @@
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
@@ -3000,7 +3003,7 @@
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
@@ -3011,7 +3014,7 @@
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
@@ -3022,7 +3025,7 @@
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
@@ -3033,7 +3036,7 @@
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
@@ -3044,7 +3047,7 @@
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
@@ -3055,7 +3058,7 @@
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
@@ -3066,7 +3069,7 @@
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
@@ -3077,7 +3080,7 @@
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
@@ -3088,7 +3091,7 @@
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
@@ -3099,7 +3102,7 @@
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
@@ -3110,7 +3113,7 @@
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
@@ -3121,7 +3124,7 @@
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
@@ -3132,7 +3135,7 @@
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
@@ -3143,7 +3146,7 @@
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
@@ -3154,7 +3157,7 @@
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
@@ -3165,7 +3168,7 @@
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
@@ -3176,7 +3179,7 @@
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
@@ -3187,7 +3190,7 @@
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
@@ -3198,7 +3201,7 @@
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
@@ -3209,7 +3212,7 @@
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
@@ -3220,7 +3223,7 @@
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
@@ -3231,7 +3234,7 @@
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
@@ -3242,7 +3245,7 @@
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
@@ -3253,7 +3256,7 @@
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
@@ -3264,7 +3267,7 @@
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
@@ -3275,7 +3278,7 @@
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
@@ -3286,7 +3289,7 @@
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
@@ -3297,7 +3300,7 @@
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
@@ -3308,7 +3311,7 @@
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
@@ -3319,7 +3322,7 @@
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
@@ -3330,7 +3333,7 @@
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
@@ -3341,13 +3344,13 @@
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E152" t="s">
         <v>17</v>
@@ -3356,19 +3359,19 @@
         <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H152" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L152" t="s">
         <v>23</v>
@@ -3379,13 +3382,13 @@
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D153" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
@@ -3394,19 +3397,19 @@
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H153" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I153" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J153" t="s">
         <v>21</v>
       </c>
       <c r="K153" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -3414,10 +3417,10 @@
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -3425,13 +3428,13 @@
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D155" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E155" t="s">
         <v>17</v>
@@ -3440,19 +3443,19 @@
         <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J155" t="s">
         <v>21</v>
       </c>
       <c r="K155" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -3460,13 +3463,13 @@
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E156" t="s">
         <v>17</v>
@@ -3475,19 +3478,19 @@
         <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I156" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J156" t="s">
         <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -3495,10 +3498,10 @@
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -3506,10 +3509,10 @@
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -3517,13 +3520,13 @@
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D159" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E159" t="s">
         <v>17</v>
@@ -3532,19 +3535,19 @@
         <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H159" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I159" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J159" t="s">
         <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -3552,10 +3555,10 @@
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -3563,10 +3566,10 @@
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -3574,13 +3577,13 @@
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D162" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E162" t="s">
         <v>17</v>
@@ -3589,19 +3592,19 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H162" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J162" t="s">
         <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -3609,13 +3612,13 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D163" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -3624,19 +3627,19 @@
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H163" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I163" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -3644,13 +3647,13 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D164" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -3659,19 +3662,19 @@
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I164" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J164" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K164" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -3679,10 +3682,10 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -3690,10 +3693,10 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -3701,10 +3704,10 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -3712,10 +3715,10 @@
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -3723,10 +3726,10 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -3734,10 +3737,10 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -3745,10 +3748,10 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -3756,10 +3759,10 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -3767,10 +3770,10 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -3778,10 +3781,10 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -3789,10 +3792,10 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -3800,10 +3803,10 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3811,10 +3814,10 @@
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -3822,10 +3825,10 @@
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3833,10 +3836,10 @@
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3844,10 +3847,10 @@
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3855,10 +3858,10 @@
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3866,10 +3869,10 @@
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3877,10 +3880,10 @@
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3888,10 +3891,10 @@
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3899,10 +3902,10 @@
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3910,10 +3913,10 @@
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3921,10 +3924,10 @@
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3932,10 +3935,10 @@
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -3943,10 +3946,10 @@
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3954,10 +3957,10 @@
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -3965,10 +3968,10 @@
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3976,10 +3979,10 @@
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3987,10 +3990,10 @@
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -3998,10 +4001,10 @@
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -4009,10 +4012,10 @@
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4020,10 +4023,10 @@
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4031,10 +4034,10 @@
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -4042,10 +4045,10 @@
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -4053,10 +4056,10 @@
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4064,10 +4067,10 @@
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -4075,10 +4078,10 @@
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -4086,10 +4089,10 @@
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4097,10 +4100,10 @@
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -4108,10 +4111,10 @@
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -4119,10 +4122,10 @@
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -4130,10 +4133,10 @@
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -4141,10 +4144,10 @@
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4152,10 +4155,10 @@
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -4163,10 +4166,10 @@
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4174,10 +4177,10 @@
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -4185,10 +4188,10 @@
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4196,10 +4199,10 @@
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -4207,10 +4210,10 @@
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -4218,10 +4221,10 @@
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -4229,10 +4232,10 @@
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -4240,10 +4243,10 @@
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -4251,10 +4254,10 @@
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -4262,10 +4265,10 @@
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -4273,10 +4276,10 @@
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -4284,10 +4287,10 @@
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -4295,10 +4298,10 @@
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -4306,10 +4309,10 @@
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -4317,10 +4320,10 @@
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -4328,10 +4331,10 @@
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -4339,10 +4342,10 @@
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -4350,10 +4353,10 @@
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -4361,10 +4364,10 @@
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -4372,10 +4375,10 @@
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -4383,10 +4386,10 @@
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -4394,10 +4397,10 @@
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4405,10 +4408,10 @@
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -4416,10 +4419,10 @@
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -4427,10 +4430,10 @@
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -4438,10 +4441,10 @@
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -4449,10 +4452,10 @@
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -4460,10 +4463,10 @@
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -4471,10 +4474,10 @@
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -4482,10 +4485,10 @@
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -4493,10 +4496,10 @@
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -4504,10 +4507,10 @@
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -4515,10 +4518,10 @@
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4526,10 +4529,10 @@
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -4537,10 +4540,10 @@
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4548,10 +4551,10 @@
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4559,10 +4562,10 @@
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4570,10 +4573,10 @@
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4581,10 +4584,10 @@
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -4592,10 +4595,10 @@
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4603,10 +4606,10 @@
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -4614,10 +4617,10 @@
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4625,10 +4628,10 @@
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4636,10 +4639,10 @@
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4647,10 +4650,10 @@
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -4658,10 +4661,10 @@
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4669,10 +4672,10 @@
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4680,10 +4683,10 @@
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4691,10 +4694,10 @@
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4702,10 +4705,10 @@
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4713,10 +4716,10 @@
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4724,10 +4727,10 @@
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -4735,10 +4738,10 @@
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -4746,10 +4749,10 @@
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4757,10 +4760,10 @@
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -4768,10 +4771,10 @@
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -4779,10 +4782,10 @@
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -4790,10 +4793,10 @@
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -4801,10 +4804,10 @@
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -4812,10 +4815,10 @@
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -4823,10 +4826,10 @@
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -4834,10 +4837,10 @@
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -4845,10 +4848,10 @@
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -4856,10 +4859,10 @@
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -4867,10 +4870,10 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -4878,10 +4881,10 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -4889,10 +4892,10 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -4900,10 +4903,10 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -4911,16 +4914,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D277" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -4928,13 +4931,13 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D278" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>17</v>
@@ -4943,19 +4946,19 @@
         <v>17</v>
       </c>
       <c r="G278" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H278" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I278" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J278" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K278" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -4963,13 +4966,13 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D279" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>17</v>
@@ -4978,19 +4981,19 @@
         <v>17</v>
       </c>
       <c r="G279" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H279" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I279" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J279" t="s">
         <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L279" t="s">
         <v>23</v>
@@ -5001,13 +5004,13 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D280" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>17</v>
@@ -5016,19 +5019,19 @@
         <v>17</v>
       </c>
       <c r="G280" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H280" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I280" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J280" t="s">
         <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -5036,13 +5039,13 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D281" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>17</v>
@@ -5051,19 +5054,19 @@
         <v>17</v>
       </c>
       <c r="G281" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H281" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I281" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
       </c>
       <c r="K281" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -5071,13 +5074,13 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D282" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>17</v>
@@ -5086,19 +5089,19 @@
         <v>17</v>
       </c>
       <c r="G282" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H282" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I282" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J282" t="s">
         <v>21</v>
       </c>
       <c r="K282" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -5106,13 +5109,13 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D283" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>17</v>
@@ -5121,19 +5124,19 @@
         <v>17</v>
       </c>
       <c r="G283" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H283" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I283" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J283" t="s">
         <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -5141,13 +5144,13 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D284" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>17</v>
@@ -5156,19 +5159,19 @@
         <v>17</v>
       </c>
       <c r="G284" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H284" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I284" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J284" t="s">
         <v>21</v>
       </c>
       <c r="K284" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -5176,13 +5179,13 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D285" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>17</v>
@@ -5191,19 +5194,19 @@
         <v>17</v>
       </c>
       <c r="G285" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H285" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I285" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J285" t="s">
         <v>21</v>
       </c>
       <c r="K285" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -5211,13 +5214,13 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D286" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>17</v>
@@ -5226,22 +5229,22 @@
         <v>17</v>
       </c>
       <c r="G286" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H286" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I286" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J286" t="s">
         <v>21</v>
       </c>
       <c r="K286" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L286" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -5249,16 +5252,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D287" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -5266,16 +5269,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D288" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -5283,29 +5286,29 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D289" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H289" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I289" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J289" t="s">
         <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -5313,34 +5316,34 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D290" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G290" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H290" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I290" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J290" t="s">
         <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L290" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -5348,16 +5351,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D291" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -5365,34 +5368,34 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D292" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G292" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H292" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I292" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J292" t="s">
         <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L292" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -5400,13 +5403,13 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D293" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>17</v>
@@ -5415,19 +5418,19 @@
         <v>17</v>
       </c>
       <c r="G293" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H293" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I293" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J293" t="s">
         <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -5435,34 +5438,34 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D294" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F294" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G294" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H294" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I294" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
       </c>
       <c r="K294" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L294" t="s">
         <v>23</v>
@@ -5473,13 +5476,13 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D295" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>17</v>
@@ -5488,22 +5491,22 @@
         <v>17</v>
       </c>
       <c r="G295" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H295" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I295" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
       </c>
       <c r="K295" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L295" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -5511,13 +5514,13 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D296" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>17</v>
@@ -5526,19 +5529,19 @@
         <v>17</v>
       </c>
       <c r="G296" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H296" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I296" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J296" t="s">
         <v>21</v>
       </c>
       <c r="K296" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -5546,13 +5549,13 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D297" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>17</v>
@@ -5561,19 +5564,19 @@
         <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H297" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I297" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
       </c>
       <c r="K297" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -5581,13 +5584,13 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D298" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>17</v>
@@ -5596,19 +5599,19 @@
         <v>17</v>
       </c>
       <c r="G298" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H298" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I298" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
       </c>
       <c r="K298" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -5616,13 +5619,13 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D299" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>17</v>
@@ -5631,19 +5634,19 @@
         <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H299" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I299" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J299" t="s">
         <v>21</v>
       </c>
       <c r="K299" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -5651,16 +5654,16 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D300" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
@@ -5668,37 +5671,37 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D301" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G301" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H301" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I301" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J301" t="s">
         <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L301" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5724,10 +5727,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5735,7 +5738,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5743,7 +5746,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5751,7 +5754,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5759,7 +5762,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5767,7 +5770,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5775,7 +5778,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5783,7 +5786,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5791,7 +5794,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5799,7 +5802,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5807,7 +5810,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5815,7 +5818,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5823,7 +5826,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5831,7 +5834,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5839,7 +5842,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5847,7 +5850,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5868,10 +5871,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5879,7 +5882,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5887,7 +5890,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5895,7 +5898,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5903,7 +5906,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5911,7 +5914,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5919,7 +5922,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5927,7 +5930,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5935,7 +5938,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5943,7 +5946,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5951,7 +5954,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5978,10 +5981,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5995,7 +5998,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -6014,7 +6017,7 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -6025,7 +6028,7 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -6047,7 +6050,7 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -6058,7 +6061,7 @@
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -6069,7 +6072,7 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -6080,7 +6083,7 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -6091,7 +6094,7 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -6102,7 +6105,7 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -6113,7 +6116,7 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -6124,7 +6127,7 @@
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -6135,7 +6138,7 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -6146,10 +6149,10 @@
         <v>309014</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6157,10 +6160,10 @@
         <v>590307</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6168,10 +6171,10 @@
         <v>847633</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6179,10 +6182,10 @@
         <v>538067</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6190,10 +6193,10 @@
         <v>889142</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6201,10 +6204,10 @@
         <v>988429</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6212,10 +6215,10 @@
         <v>159320</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6223,10 +6226,10 @@
         <v>985070</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6234,10 +6237,10 @@
         <v>872696</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6245,10 +6248,10 @@
         <v>645107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6256,10 +6259,10 @@
         <v>213190</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6267,10 +6270,10 @@
         <v>170406</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6278,10 +6281,10 @@
         <v>588655</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6289,10 +6292,10 @@
         <v>441310</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6300,10 +6303,10 @@
         <v>312435</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6311,10 +6314,10 @@
         <v>505418</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF7BAF8-E6F1-4AC4-9267-C547DE0B0D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128001CE-5346-460C-A0B8-1D08BAD7CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128001CE-5346-460C-A0B8-1D08BAD7CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AAD454-B733-4AEA-8166-854BFAA87E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="379">
   <si>
     <t>acount</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>מילכה חנוקוגלו</t>
+  </si>
+  <si>
+    <t>Zohar Peled-Zinger</t>
   </si>
   <si>
     <t>2023-08-21</t>
@@ -1577,7 +1580,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3353,25 +3356,25 @@
         <v>181</v>
       </c>
       <c r="E152" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L152" t="s">
         <v>23</v>
@@ -3382,13 +3385,13 @@
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D153" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
@@ -3397,19 +3400,19 @@
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H153" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I153" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J153" t="s">
         <v>21</v>
       </c>
       <c r="K153" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -3417,7 +3420,7 @@
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>180</v>
@@ -3428,34 +3431,34 @@
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E155" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I155" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J155" t="s">
         <v>21</v>
       </c>
       <c r="K155" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -3463,13 +3466,13 @@
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D156" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E156" t="s">
         <v>17</v>
@@ -3478,19 +3481,19 @@
         <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J156" t="s">
         <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -3498,7 +3501,7 @@
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>180</v>
@@ -3509,7 +3512,7 @@
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>180</v>
@@ -3520,13 +3523,13 @@
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D159" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E159" t="s">
         <v>17</v>
@@ -3535,19 +3538,19 @@
         <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I159" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J159" t="s">
         <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -3555,7 +3558,7 @@
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>180</v>
@@ -3566,7 +3569,7 @@
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>180</v>
@@ -3577,13 +3580,13 @@
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D162" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E162" t="s">
         <v>17</v>
@@ -3592,19 +3595,19 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J162" t="s">
         <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -3612,13 +3615,13 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -3627,19 +3630,19 @@
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H163" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -3647,13 +3650,13 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -3662,19 +3665,19 @@
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H164" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I164" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J164" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K164" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -3682,7 +3685,7 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>180</v>
@@ -3693,7 +3696,7 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>180</v>
@@ -3704,7 +3707,7 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>180</v>
@@ -3715,7 +3718,7 @@
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>180</v>
@@ -3726,7 +3729,7 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>180</v>
@@ -3737,7 +3740,7 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>180</v>
@@ -3748,7 +3751,7 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>180</v>
@@ -3759,7 +3762,7 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>180</v>
@@ -3770,7 +3773,7 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>180</v>
@@ -3781,7 +3784,7 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>180</v>
@@ -3792,7 +3795,7 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>180</v>
@@ -3803,7 +3806,7 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>180</v>
@@ -3814,7 +3817,7 @@
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>180</v>
@@ -3825,7 +3828,7 @@
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>180</v>
@@ -3836,7 +3839,7 @@
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>180</v>
@@ -3847,7 +3850,7 @@
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>180</v>
@@ -3858,7 +3861,7 @@
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>180</v>
@@ -3869,7 +3872,7 @@
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>180</v>
@@ -3880,7 +3883,7 @@
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>180</v>
@@ -3891,7 +3894,7 @@
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>180</v>
@@ -3902,7 +3905,7 @@
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>180</v>
@@ -3913,7 +3916,7 @@
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>180</v>
@@ -3924,7 +3927,7 @@
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>180</v>
@@ -3935,7 +3938,7 @@
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>180</v>
@@ -3946,7 +3949,7 @@
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>180</v>
@@ -3957,7 +3960,7 @@
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>180</v>
@@ -3968,7 +3971,7 @@
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>180</v>
@@ -3979,7 +3982,7 @@
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>180</v>
@@ -3990,7 +3993,7 @@
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>180</v>
@@ -4001,7 +4004,7 @@
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>180</v>
@@ -4012,7 +4015,7 @@
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>180</v>
@@ -4023,7 +4026,7 @@
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>180</v>
@@ -4034,7 +4037,7 @@
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>180</v>
@@ -4045,7 +4048,7 @@
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>180</v>
@@ -4056,7 +4059,7 @@
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>180</v>
@@ -4067,7 +4070,7 @@
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>180</v>
@@ -4078,7 +4081,7 @@
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>180</v>
@@ -4089,7 +4092,7 @@
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>180</v>
@@ -4100,7 +4103,7 @@
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>180</v>
@@ -4111,7 +4114,7 @@
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>180</v>
@@ -4122,7 +4125,7 @@
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>180</v>
@@ -4133,7 +4136,7 @@
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>180</v>
@@ -4144,7 +4147,7 @@
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>180</v>
@@ -4155,7 +4158,7 @@
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>180</v>
@@ -4166,7 +4169,7 @@
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>180</v>
@@ -4177,7 +4180,7 @@
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>180</v>
@@ -4188,7 +4191,7 @@
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>180</v>
@@ -4199,7 +4202,7 @@
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>180</v>
@@ -4210,7 +4213,7 @@
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>180</v>
@@ -4221,7 +4224,7 @@
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>180</v>
@@ -4232,7 +4235,7 @@
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>180</v>
@@ -4243,7 +4246,7 @@
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>180</v>
@@ -4254,7 +4257,7 @@
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>180</v>
@@ -4265,7 +4268,7 @@
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>180</v>
@@ -4276,7 +4279,7 @@
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>180</v>
@@ -4287,7 +4290,7 @@
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>180</v>
@@ -4298,7 +4301,7 @@
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>180</v>
@@ -4309,7 +4312,7 @@
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>180</v>
@@ -4320,7 +4323,7 @@
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>180</v>
@@ -4331,7 +4334,7 @@
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>180</v>
@@ -4342,7 +4345,7 @@
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>180</v>
@@ -4353,7 +4356,7 @@
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>180</v>
@@ -4364,7 +4367,7 @@
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>180</v>
@@ -4375,7 +4378,7 @@
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>180</v>
@@ -4386,7 +4389,7 @@
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>180</v>
@@ -4397,7 +4400,7 @@
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>180</v>
@@ -4408,7 +4411,7 @@
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>180</v>
@@ -4419,7 +4422,7 @@
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>180</v>
@@ -4430,7 +4433,7 @@
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>180</v>
@@ -4441,7 +4444,7 @@
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>180</v>
@@ -4452,7 +4455,7 @@
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>180</v>
@@ -4463,7 +4466,7 @@
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>180</v>
@@ -4474,7 +4477,7 @@
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>180</v>
@@ -4485,7 +4488,7 @@
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>180</v>
@@ -4496,7 +4499,7 @@
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>180</v>
@@ -4507,7 +4510,7 @@
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>180</v>
@@ -4518,7 +4521,7 @@
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>180</v>
@@ -4529,7 +4532,7 @@
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>180</v>
@@ -4540,7 +4543,7 @@
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>180</v>
@@ -4551,7 +4554,7 @@
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>180</v>
@@ -4562,7 +4565,7 @@
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>180</v>
@@ -4573,7 +4576,7 @@
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>180</v>
@@ -4584,7 +4587,7 @@
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>180</v>
@@ -4595,7 +4598,7 @@
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>180</v>
@@ -4606,7 +4609,7 @@
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>180</v>
@@ -4617,7 +4620,7 @@
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>180</v>
@@ -4628,7 +4631,7 @@
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>180</v>
@@ -4639,7 +4642,7 @@
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>180</v>
@@ -4650,7 +4653,7 @@
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>180</v>
@@ -4661,7 +4664,7 @@
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>180</v>
@@ -4672,7 +4675,7 @@
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>180</v>
@@ -4683,7 +4686,7 @@
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>180</v>
@@ -4694,7 +4697,7 @@
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>180</v>
@@ -4705,7 +4708,7 @@
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>180</v>
@@ -4716,7 +4719,7 @@
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>180</v>
@@ -4727,7 +4730,7 @@
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>180</v>
@@ -4738,7 +4741,7 @@
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>180</v>
@@ -4749,7 +4752,7 @@
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>180</v>
@@ -4760,7 +4763,7 @@
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>180</v>
@@ -4771,7 +4774,7 @@
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>180</v>
@@ -4782,7 +4785,7 @@
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>180</v>
@@ -4793,7 +4796,7 @@
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>180</v>
@@ -4804,7 +4807,7 @@
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>180</v>
@@ -4815,7 +4818,7 @@
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>180</v>
@@ -4826,7 +4829,7 @@
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>180</v>
@@ -4837,7 +4840,7 @@
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>180</v>
@@ -4848,7 +4851,7 @@
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>180</v>
@@ -4859,7 +4862,7 @@
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>180</v>
@@ -4870,7 +4873,7 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>180</v>
@@ -4881,7 +4884,7 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>180</v>
@@ -4892,7 +4895,7 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>180</v>
@@ -4903,7 +4906,7 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>180</v>
@@ -4914,16 +4917,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D277" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -4931,13 +4934,13 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D278" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>17</v>
@@ -4946,19 +4949,19 @@
         <v>17</v>
       </c>
       <c r="G278" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H278" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I278" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J278" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K278" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -4966,13 +4969,13 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D279" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>17</v>
@@ -4981,19 +4984,19 @@
         <v>17</v>
       </c>
       <c r="G279" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H279" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I279" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J279" t="s">
         <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L279" t="s">
         <v>23</v>
@@ -5004,13 +5007,13 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D280" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>17</v>
@@ -5019,19 +5022,19 @@
         <v>17</v>
       </c>
       <c r="G280" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H280" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I280" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J280" t="s">
         <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -5039,13 +5042,13 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D281" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>17</v>
@@ -5054,19 +5057,19 @@
         <v>17</v>
       </c>
       <c r="G281" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H281" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I281" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
       </c>
       <c r="K281" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -5074,13 +5077,13 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D282" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>17</v>
@@ -5089,19 +5092,19 @@
         <v>17</v>
       </c>
       <c r="G282" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H282" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I282" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J282" t="s">
         <v>21</v>
       </c>
       <c r="K282" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -5109,13 +5112,13 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D283" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>17</v>
@@ -5124,19 +5127,19 @@
         <v>17</v>
       </c>
       <c r="G283" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H283" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I283" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J283" t="s">
         <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -5144,13 +5147,13 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D284" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>17</v>
@@ -5159,19 +5162,19 @@
         <v>17</v>
       </c>
       <c r="G284" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H284" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I284" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J284" t="s">
         <v>21</v>
       </c>
       <c r="K284" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -5179,13 +5182,13 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D285" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>17</v>
@@ -5194,19 +5197,19 @@
         <v>17</v>
       </c>
       <c r="G285" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H285" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I285" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J285" t="s">
         <v>21</v>
       </c>
       <c r="K285" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -5214,13 +5217,13 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D286" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>17</v>
@@ -5229,22 +5232,22 @@
         <v>17</v>
       </c>
       <c r="G286" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H286" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I286" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J286" t="s">
         <v>21</v>
       </c>
       <c r="K286" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L286" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -5252,16 +5255,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D287" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -5269,16 +5272,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D288" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -5286,29 +5289,29 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D289" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H289" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I289" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J289" t="s">
         <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -5316,34 +5319,34 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D290" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G290" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H290" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I290" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J290" t="s">
         <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L290" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -5351,16 +5354,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D291" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -5368,34 +5371,34 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D292" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G292" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H292" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I292" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J292" t="s">
         <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L292" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -5403,13 +5406,13 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D293" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>17</v>
@@ -5418,19 +5421,19 @@
         <v>17</v>
       </c>
       <c r="G293" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H293" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I293" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J293" t="s">
         <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -5438,34 +5441,34 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D294" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F294" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G294" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H294" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I294" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
       </c>
       <c r="K294" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L294" t="s">
         <v>23</v>
@@ -5476,13 +5479,13 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D295" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>17</v>
@@ -5491,22 +5494,22 @@
         <v>17</v>
       </c>
       <c r="G295" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H295" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I295" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
       </c>
       <c r="K295" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L295" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -5514,13 +5517,13 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D296" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>17</v>
@@ -5529,19 +5532,19 @@
         <v>17</v>
       </c>
       <c r="G296" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H296" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I296" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J296" t="s">
         <v>21</v>
       </c>
       <c r="K296" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -5549,13 +5552,13 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D297" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>17</v>
@@ -5564,19 +5567,19 @@
         <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H297" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I297" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
       </c>
       <c r="K297" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -5584,13 +5587,13 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D298" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>17</v>
@@ -5599,19 +5602,19 @@
         <v>17</v>
       </c>
       <c r="G298" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H298" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I298" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
       </c>
       <c r="K298" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -5619,13 +5622,13 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D299" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>17</v>
@@ -5634,19 +5637,19 @@
         <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H299" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I299" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J299" t="s">
         <v>21</v>
       </c>
       <c r="K299" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -5654,16 +5657,16 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D300" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
@@ -5671,37 +5674,37 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D301" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G301" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H301" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I301" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J301" t="s">
         <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L301" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -5727,10 +5730,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5738,7 +5741,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5746,7 +5749,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5754,7 +5757,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5762,7 +5765,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5770,7 +5773,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5778,7 +5781,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5786,7 +5789,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5794,7 +5797,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5802,7 +5805,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5810,7 +5813,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5818,7 +5821,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5826,7 +5829,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5834,7 +5837,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5842,7 +5845,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5850,7 +5853,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5871,10 +5874,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5882,7 +5885,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5890,7 +5893,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5898,7 +5901,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5906,7 +5909,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5914,7 +5917,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5922,7 +5925,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5930,7 +5933,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5938,7 +5941,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5946,7 +5949,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5954,7 +5957,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5981,10 +5984,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5998,7 +6001,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -6160,7 +6163,7 @@
         <v>590307</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>180</v>
@@ -6171,7 +6174,7 @@
         <v>847633</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>180</v>
@@ -6182,7 +6185,7 @@
         <v>538067</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>180</v>
@@ -6193,7 +6196,7 @@
         <v>889142</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>180</v>
@@ -6204,7 +6207,7 @@
         <v>988429</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>180</v>
@@ -6215,7 +6218,7 @@
         <v>159320</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>180</v>
@@ -6226,7 +6229,7 @@
         <v>985070</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>180</v>
@@ -6237,7 +6240,7 @@
         <v>872696</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>180</v>
@@ -6248,7 +6251,7 @@
         <v>645107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>180</v>
@@ -6259,7 +6262,7 @@
         <v>213190</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>180</v>
@@ -6270,7 +6273,7 @@
         <v>170406</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>180</v>
@@ -6281,7 +6284,7 @@
         <v>588655</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>180</v>
@@ -6292,7 +6295,7 @@
         <v>441310</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>180</v>
@@ -6303,7 +6306,7 @@
         <v>312435</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>180</v>
@@ -6314,7 +6317,7 @@
         <v>505418</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>180</v>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AAD454-B733-4AEA-8166-854BFAA87E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF98BB-996C-41A9-8CAF-3705ADA14B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF98BB-996C-41A9-8CAF-3705ADA14B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81395BEC-572C-467E-8C53-3949FEF82513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="377">
   <si>
     <t>acount</t>
   </si>
@@ -574,7 +574,7 @@
     <t>מילכה חנוקוגלו</t>
   </si>
   <si>
-    <t>Zohar Peled-Zinger</t>
+    <t>General</t>
   </si>
   <si>
     <t>2023-08-21</t>
@@ -1105,9 +1105,6 @@
     <t>הילה אסקיו</t>
   </si>
   <si>
-    <t>Hila Askayo</t>
-  </si>
-  <si>
     <t>4HVU</t>
   </si>
   <si>
@@ -1135,7 +1132,7 @@
     <t>DMB5</t>
   </si>
   <si>
-    <t>אנסטסיה טינטייב</t>
+    <t>תומר צור</t>
   </si>
   <si>
     <t>NG2X</t>
@@ -1145,9 +1142,6 @@
   </si>
   <si>
     <t>ליאת אייל</t>
-  </si>
-  <si>
-    <t>Noa Shultz</t>
   </si>
   <si>
     <t>משתמש</t>
@@ -1580,7 +1574,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,7 +3353,7 @@
         <v>182</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G152" t="s">
         <v>183</v>
@@ -3443,7 +3437,7 @@
         <v>182</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G155" t="s">
         <v>183</v>
@@ -3475,10 +3469,10 @@
         <v>193</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G156" t="s">
         <v>183</v>
@@ -4978,10 +4972,10 @@
         <v>330</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F279" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G279" t="s">
         <v>183</v>
@@ -5016,10 +5010,10 @@
         <v>332</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F280" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G280" t="s">
         <v>183</v>
@@ -5051,10 +5045,10 @@
         <v>334</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F281" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G281" t="s">
         <v>183</v>
@@ -5086,10 +5080,10 @@
         <v>336</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F282" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G282" t="s">
         <v>183</v>
@@ -5121,10 +5115,10 @@
         <v>338</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F283" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G283" t="s">
         <v>183</v>
@@ -5156,10 +5150,10 @@
         <v>340</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F284" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G284" t="s">
         <v>183</v>
@@ -5191,10 +5185,10 @@
         <v>342</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F285" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G285" t="s">
         <v>183</v>
@@ -5415,10 +5409,10 @@
         <v>356</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F293" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G293" t="s">
         <v>183</v>
@@ -5450,10 +5444,10 @@
         <v>358</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F294" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="G294" t="s">
         <v>183</v>
@@ -5479,19 +5473,19 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D295" t="s">
         <v>360</v>
       </c>
-      <c r="C295" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D295" t="s">
-        <v>361</v>
-      </c>
       <c r="E295" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F295" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G295" t="s">
         <v>183</v>
@@ -5517,19 +5511,19 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D296" t="s">
         <v>362</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D296" t="s">
-        <v>363</v>
-      </c>
       <c r="E296" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F296" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G296" t="s">
         <v>183</v>
@@ -5552,19 +5546,19 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D297" t="s">
         <v>364</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D297" t="s">
-        <v>365</v>
-      </c>
       <c r="E297" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F297" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G297" t="s">
         <v>183</v>
@@ -5587,19 +5581,19 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D298" t="s">
         <v>366</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D298" t="s">
-        <v>367</v>
-      </c>
       <c r="E298" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F298" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G298" t="s">
         <v>183</v>
@@ -5622,13 +5616,13 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D299" t="s">
         <v>368</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D299" t="s">
-        <v>369</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>17</v>
@@ -5657,7 +5651,7 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>180</v>
@@ -5674,19 +5668,19 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D301" t="s">
         <v>371</v>
       </c>
-      <c r="C301" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D301" t="s">
-        <v>372</v>
-      </c>
       <c r="E301" s="6" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F301" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="G301" t="s">
         <v>183</v>
@@ -5730,10 +5724,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5805,7 +5799,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,7 +5807,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5821,7 +5815,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5829,7 +5823,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +5831,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5845,7 +5839,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5853,7 +5847,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5874,10 +5868,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5984,10 +5978,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -6001,7 +5995,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -3408,6 +3408,11 @@
           <t>2024-08-15</t>
         </is>
       </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|דכדגכד|דכדגכד|דכדגכד|דכדגכד</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="5" t="n">

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82C9D07-88EB-4249-9B64-3727591952B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BC6995-2594-473A-91CB-C80BF83DAB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BC6995-2594-473A-91CB-C80BF83DAB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED46D95-E966-4D78-A2BE-91846D3B1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9100C-EFF4-4FEB-9AC6-2F3503A48844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F682305-FAD5-45E6-955C-3DFBC37943F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F682305-FAD5-45E6-955C-3DFBC37943F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA83697D-D4A8-4C77-BD8C-9A0E9687FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA83697D-D4A8-4C77-BD8C-9A0E9687FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C9FBC-04D4-46BE-AC8F-D04DE80415D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C9FBC-04D4-46BE-AC8F-D04DE80415D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160CB31-5DC2-458F-8BFF-B7B58B5BE32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$301</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160CB31-5DC2-458F-8BFF-B7B58B5BE32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4497ADD-1CFC-4D7D-A8D4-3C274564303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4497ADD-1CFC-4D7D-A8D4-3C274564303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1C428-991F-49B0-82DF-CF602F57138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1C428-991F-49B0-82DF-CF602F57138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0362AAC7-352B-48F3-A5FC-9AD2ACD291FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0362AAC7-352B-48F3-A5FC-9AD2ACD291FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870FA97-7FB5-47EB-84CF-AC15B32626B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C870FA97-7FB5-47EB-84CF-AC15B32626B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E814BF-7A4B-47FF-9F0E-DFD061D802C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E814BF-7A4B-47FF-9F0E-DFD061D802C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02854250-5F15-49A2-A632-3DC69FD34E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02854250-5F15-49A2-A632-3DC69FD34E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265792DC-CD14-42CB-A349-F02A64252D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265792DC-CD14-42CB-A349-F02A64252D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CA8F40-82E6-4A07-8FE3-164E4D7DB63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CA8F40-82E6-4A07-8FE3-164E4D7DB63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261EF282-F519-42FF-B24E-02DC0750DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261EF282-F519-42FF-B24E-02DC0750DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6707D-D6E3-4FB9-8DB6-6A4BD0D918C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6707D-D6E3-4FB9-8DB6-6A4BD0D918C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EDCE70-3FB5-4E49-A6FD-ACC6B3E20B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EDCE70-3FB5-4E49-A6FD-ACC6B3E20B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D3018E-2682-40AD-B05A-A098E464ACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D3018E-2682-40AD-B05A-A098E464ACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43283DA-087A-4DB8-9301-210F40028019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D324ABD-83F6-486E-8897-45D8C0CC2739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670266E-B6A0-4359-961A-6F26B8239E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670266E-B6A0-4359-961A-6F26B8239E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73594A46-B7A9-4297-8FEF-D3B7EF1597D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73594A46-B7A9-4297-8FEF-D3B7EF1597D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20B26D-0FF2-4AF2-81A6-65845E31DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20B26D-0FF2-4AF2-81A6-65845E31DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1E977-F814-4B1B-A660-9F62A69C6724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1E977-F814-4B1B-A660-9F62A69C6724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF03686-360D-4F4C-9EC6-991DE5BE7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,7 +1654,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF03686-360D-4F4C-9EC6-991DE5BE7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFD1DC-8DF8-4116-9DFB-3F5910388821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,7 +1654,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFD1DC-8DF8-4116-9DFB-3F5910388821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC57C6-2371-4EB4-B57E-139D36ED57FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDC57C6-2371-4EB4-B57E-139D36ED57FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{738C043D-77D1-4BC7-A1E7-25642D53909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,15 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$I$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="427">
   <si>
     <t>acount</t>
   </si>
@@ -166,6 +167,9 @@
     <t>01-003</t>
   </si>
   <si>
+    <t>Shachar Michael</t>
+  </si>
+  <si>
     <t>6270</t>
   </si>
   <si>
@@ -754,6 +758,24 @@
     <t>V2WT</t>
   </si>
   <si>
+    <t>01-046</t>
+  </si>
+  <si>
+    <t>2023-12-24</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
     <t>N01G</t>
   </si>
   <si>
@@ -1201,7 +1223,7 @@
     <t>A3KW</t>
   </si>
   <si>
-    <t>אלי שפיצר</t>
+    <t>זיו</t>
   </si>
   <si>
     <t>G50Y</t>
@@ -1238,6 +1260,63 @@
   </si>
   <si>
     <t>** E - Experimental group</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>01-001</t>
+  </si>
+  <si>
+    <t>01-047</t>
+  </si>
+  <si>
+    <t>01-006</t>
+  </si>
+  <si>
+    <t>01-005</t>
+  </si>
+  <si>
+    <t>Free for E-patient</t>
+  </si>
+  <si>
+    <t>Free for C-patient</t>
+  </si>
+  <si>
+    <t>sheeet</t>
+  </si>
+  <si>
+    <t>Free for C-Patient</t>
+  </si>
+  <si>
+    <t>01-006 NEW</t>
+  </si>
+  <si>
+    <t>01-047 NEW</t>
+  </si>
+  <si>
+    <t>הלן ישראל</t>
+  </si>
+  <si>
+    <t>נועה שולץ</t>
+  </si>
+  <si>
+    <t>ענג קביזון</t>
+  </si>
+  <si>
+    <t>01-005 NEW</t>
+  </si>
+  <si>
+    <t>Allocated for E-Patient</t>
+  </si>
+  <si>
+    <t>דורון</t>
+  </si>
+  <si>
+    <t>Allocated for C-Patient</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1269,8 +1348,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,6 +1373,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,7 +1456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1349,6 +1472,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1654,19 +1787,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1711,7 +1839,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>132607</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1720,7 +1848,7 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
@@ -1793,7 +1921,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="14">
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1802,7 +1930,7 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
@@ -1828,7 +1956,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="14">
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1837,11 +1965,11 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1863,63 +1991,69 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="14">
         <v>523678</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
+      <c r="D6" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="14">
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="16" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="14">
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1927,10 +2061,13 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1938,10 +2075,13 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1949,10 +2089,13 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1960,10 +2103,13 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1971,21 +2117,27 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D13" s="17" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="15">
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1993,10 +2145,13 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2004,1418 +2159,1805 @@
         <v>775348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>559121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -3423,10 +3965,13 @@
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -3434,10 +3979,13 @@
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -3445,10 +3993,13 @@
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -3456,10 +4007,13 @@
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -3467,10 +4021,13 @@
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -3478,10 +4035,13 @@
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -3489,10 +4049,13 @@
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -3500,34 +4063,34 @@
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D152" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E152" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F152" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G152" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H152" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I152" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L152" t="s">
         <v>23</v>
@@ -3538,34 +4101,34 @@
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E153" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F153" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G153" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H153" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I153" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J153" t="s">
         <v>21</v>
       </c>
       <c r="K153" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -3573,10 +4136,13 @@
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -3584,34 +4150,34 @@
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E155" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F155" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G155" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H155" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I155" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J155" t="s">
         <v>21</v>
       </c>
       <c r="K155" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -3619,34 +4185,34 @@
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D156" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E156" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F156" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G156" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H156" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I156" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J156" t="s">
         <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -3654,10 +4220,13 @@
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D157" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -3665,10 +4234,13 @@
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D158" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -3676,34 +4248,34 @@
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G159" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H159" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I159" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J159" t="s">
         <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -3711,10 +4283,13 @@
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -3722,10 +4297,13 @@
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -3733,13 +4311,13 @@
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E162" t="s">
         <v>17</v>
@@ -3748,22 +4326,22 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H162" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I162" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J162" t="s">
         <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M162" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -3771,13 +4349,13 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D163" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -3786,19 +4364,19 @@
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H163" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I163" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -3806,13 +4384,13 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D164" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -3821,22 +4399,22 @@
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H164" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I164" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K164" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L164" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -3844,13 +4422,13 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D165" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E165" t="s">
         <v>17</v>
@@ -3859,25 +4437,25 @@
         <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I165" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J165" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K165" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L165" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M165" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -3885,10 +4463,34 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D166" t="s">
+        <v>240</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" t="s">
+        <v>46</v>
+      </c>
+      <c r="G166" t="s">
+        <v>241</v>
+      </c>
+      <c r="H166" t="s">
+        <v>242</v>
+      </c>
+      <c r="I166" t="s">
+        <v>243</v>
+      </c>
+      <c r="J166" t="s">
+        <v>244</v>
+      </c>
+      <c r="K166" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -3896,10 +4498,13 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -3907,10 +4512,13 @@
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -3918,10 +4526,13 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -3929,10 +4540,13 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -3940,10 +4554,13 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -3951,10 +4568,13 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -3962,10 +4582,13 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -3973,10 +4596,13 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -3984,10 +4610,13 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -3995,1066 +4624,1357 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D227" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D228" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D229" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D230" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D231" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D232" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D242" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D245" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D246" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D247" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D249" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D250" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D252" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D253" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D254" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D255" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D256" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D257" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D258" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D259" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D260" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D261" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D262" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D263" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D264" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D265" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D266" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D270" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -5062,10 +5982,13 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -5073,10 +5996,13 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -5084,10 +6010,13 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -5095,10 +6024,13 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -5106,16 +6038,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D277" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -5123,13 +6055,13 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D278" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>17</v>
@@ -5141,16 +6073,16 @@
         <v>28</v>
       </c>
       <c r="H278" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I278" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J278" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K278" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -5158,34 +6090,34 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D279" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F279" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G279" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H279" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I279" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J279" t="s">
         <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L279" t="s">
         <v>23</v>
@@ -5196,34 +6128,34 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D280" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F280" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G280" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H280" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I280" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J280" t="s">
         <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -5231,34 +6163,34 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D281" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F281" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G281" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H281" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I281" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
       </c>
       <c r="K281" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -5266,34 +6198,34 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D282" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F282" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G282" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H282" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I282" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J282" t="s">
         <v>21</v>
       </c>
       <c r="K282" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -5301,34 +6233,34 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D283" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F283" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G283" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H283" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I283" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J283" t="s">
         <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -5336,34 +6268,34 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D284" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F284" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G284" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H284" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I284" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J284" t="s">
         <v>21</v>
       </c>
       <c r="K284" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -5371,34 +6303,34 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D285" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F285" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G285" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H285" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I285" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J285" t="s">
         <v>21</v>
       </c>
       <c r="K285" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -5406,13 +6338,13 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D286" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>17</v>
@@ -5421,22 +6353,22 @@
         <v>17</v>
       </c>
       <c r="G286" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H286" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I286" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J286" t="s">
         <v>21</v>
       </c>
       <c r="K286" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L286" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -5444,16 +6376,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D287" t="s">
-        <v>350</v>
+        <v>198</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -5461,16 +6393,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D288" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -5478,29 +6410,29 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D289" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H289" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I289" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J289" t="s">
         <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -5508,34 +6440,34 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D290" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G290" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H290" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I290" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J290" t="s">
         <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L290" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -5543,16 +6475,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D291" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -5560,13 +6492,13 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D292" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>17</v>
@@ -5575,22 +6507,22 @@
         <v>17</v>
       </c>
       <c r="G292" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H292" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I292" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J292" t="s">
         <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L292" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -5598,34 +6530,34 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D293" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F293" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G293" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H293" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I293" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J293" t="s">
         <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -5633,34 +6565,34 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D294" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F294" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G294" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H294" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I294" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
       </c>
       <c r="K294" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L294" t="s">
         <v>23</v>
@@ -5671,37 +6603,37 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D295" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F295" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G295" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H295" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I295" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
       </c>
       <c r="K295" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L295" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -5709,34 +6641,34 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D296" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F296" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G296" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H296" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I296" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J296" t="s">
         <v>21</v>
       </c>
       <c r="K296" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -5744,34 +6676,34 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D297" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="F297" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H297" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I297" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
       </c>
       <c r="K297" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -5779,34 +6711,34 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D298" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F298" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G298" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H298" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I298" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
       </c>
       <c r="K298" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -5814,13 +6746,13 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D299" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>17</v>
@@ -5829,19 +6761,19 @@
         <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H299" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I299" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J299" t="s">
         <v>21</v>
       </c>
       <c r="K299" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -5849,16 +6781,16 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D300" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
@@ -5866,42 +6798,43 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D301" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F301" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G301" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H301" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I301" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J301" t="s">
         <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L301" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L301" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5911,7 +6844,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5922,10 +6855,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +6866,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +6874,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +6882,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +6890,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +6898,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +6906,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,7 +6914,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5989,7 +6922,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5997,7 +6930,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6005,7 +6938,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6013,7 +6946,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6021,7 +6954,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +6962,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6037,7 +6970,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6045,7 +6978,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -6059,17 +6992,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6077,7 +7010,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6085,7 +7018,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6093,7 +7026,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +7034,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6109,7 +7042,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6117,7 +7050,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6125,7 +7058,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6133,7 +7066,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6141,7 +7074,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6149,7 +7082,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6163,10 +7096,13 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K2"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -6176,346 +7112,448 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>398</v>
+        <v>405</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="I1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>132607</v>
+        <v>125785</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>400</v>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>608563</v>
+        <v>129098</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>129098</v>
+        <v>132607</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>125785</v>
+        <v>243153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>523678</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6270</v>
+        <v>441626</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>994670</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>523678</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6270</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>737460</v>
+        <v>594572</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>738266</v>
+        <v>608563</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>441626</v>
+        <v>663230</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>663230</v>
+        <v>737460</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>951446</v>
+        <v>738266</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>594572</v>
+        <v>797463</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>243153</v>
+        <v>951446</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>797463</v>
+        <v>994670</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
+        <v>159320</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>170406</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>213190</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>309014</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="C19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>312435</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>441310</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>505418</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>538067</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>588655</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>590307</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>847633</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>538067</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>889142</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>988429</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>159320</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>985070</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>872696</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="B25" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>645107</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>213190</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>217</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>170406</v>
+        <v>847633</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>588655</v>
+        <v>872696</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>441310</v>
+        <v>889142</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>312435</v>
+        <v>985070</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>505418</v>
+        <v>988429</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I31" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
+    <sortCondition ref="C2:C31"/>
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738C043D-77D1-4BC7-A1E7-25642D53909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0080AC-C5AB-45BD-9D2F-3314E403D020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1787,7 +1787,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0080AC-C5AB-45BD-9D2F-3314E403D020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA4A21A-0D93-4545-B7CA-96A74A9E20B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA4A21A-0D93-4545-B7CA-96A74A9E20B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE40093-29C5-4B75-A568-79DB4E0785ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A7E50-33E6-4F49-B554-3C923D416275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C58293-0AAE-4081-A45D-1AA0A5F4B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C58293-0AAE-4081-A45D-1AA0A5F4B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294BB74-0171-497A-A062-C928FE8B1161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -957,6 +957,36 @@
           <t>01-006 NEW</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="n">

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71037811-7FC9-4E99-9708-21EC655E5D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83854D4-A906-498A-915D-948504BF88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$I$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="493">
   <si>
     <t>acount</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Patient_Status</t>
-  </si>
-  <si>
-    <t>messages</t>
   </si>
   <si>
     <t>B97N</t>
@@ -221,6 +218,9 @@
     <t>2025-01-02</t>
   </si>
   <si>
+    <t>מטופל מתרגל כפעמיים ביום.</t>
+  </si>
+  <si>
     <t>QF5A</t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>NOVQ</t>
   </si>
   <si>
-    <t>1-050</t>
+    <t>01-050</t>
   </si>
   <si>
     <t>2024-03-19</t>
@@ -281,7 +281,7 @@
     <t>VDIX</t>
   </si>
   <si>
-    <t>4-183</t>
+    <t>04-183</t>
   </si>
   <si>
     <t>CBS1</t>
@@ -329,12 +329,30 @@
     <t>K0AE</t>
   </si>
   <si>
+    <t>04-188</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-06-23</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>8PM7</t>
+  </si>
+  <si>
     <t>Allocated for C-Patient</t>
   </si>
   <si>
-    <t>8PM7</t>
-  </si>
-  <si>
     <t>ZTHJ</t>
   </si>
   <si>
@@ -929,24 +947,42 @@
     <t>0HHK</t>
   </si>
   <si>
-    <t>1-007</t>
+    <t>01-007</t>
   </si>
   <si>
     <t>8X3P</t>
   </si>
   <si>
+    <t>04-182</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>CKOM</t>
+  </si>
+  <si>
+    <t>04-161</t>
+  </si>
+  <si>
+    <t>DHEP</t>
+  </si>
+  <si>
     <t>Allocated for E-Patient</t>
   </si>
   <si>
-    <t>CKOM</t>
-  </si>
-  <si>
-    <t>04-161</t>
-  </si>
-  <si>
-    <t>DHEP</t>
-  </si>
-  <si>
     <t>GH5B</t>
   </si>
   <si>
@@ -1476,6 +1512,9 @@
   </si>
   <si>
     <t>sheeet</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1946,8 +1985,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2002,40 +2041,40 @@
         <v>132607</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2043,40 +2082,40 @@
         <v>608563</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2084,34 +2123,34 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2119,37 +2158,37 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2157,37 +2196,37 @@
         <v>523678</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>50</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2195,33 +2234,39 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2233,16 +2278,16 @@
         <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
@@ -2260,7 +2305,7 @@
         <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2271,16 +2316,16 @@
         <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>70</v>
@@ -2306,7 +2351,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>76</v>
@@ -2320,7 +2365,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>78</v>
@@ -2329,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>70</v>
@@ -2347,7 +2392,7 @@
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2358,16 +2403,16 @@
         <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
@@ -2393,7 +2438,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>76</v>
@@ -2407,22 +2452,22 @@
         <v>83</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
         <v>86</v>
@@ -2434,7 +2479,7 @@
         <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2445,16 +2490,16 @@
         <v>89</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>91</v>
@@ -2480,10 +2525,31 @@
         <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2491,13 +2557,13 @@
         <v>559121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2505,13 +2571,13 @@
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2519,13 +2585,13 @@
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2533,13 +2599,13 @@
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,13 +2613,13 @@
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,13 +2627,13 @@
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,13 +2641,13 @@
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2589,13 +2655,13 @@
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2603,13 +2669,13 @@
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2617,13 +2683,13 @@
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2631,13 +2697,13 @@
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2645,13 +2711,13 @@
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2659,13 +2725,13 @@
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2673,13 +2739,13 @@
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2687,13 +2753,13 @@
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2701,13 +2767,13 @@
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2715,13 +2781,13 @@
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2729,13 +2795,13 @@
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2743,13 +2809,13 @@
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2757,13 +2823,13 @@
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,13 +2837,13 @@
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2785,13 +2851,13 @@
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2799,13 +2865,13 @@
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2813,13 +2879,13 @@
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2827,13 +2893,13 @@
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2841,13 +2907,13 @@
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,13 +2921,13 @@
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2869,13 +2935,13 @@
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2883,13 +2949,13 @@
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,13 +2963,13 @@
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,13 +2977,13 @@
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2925,13 +2991,13 @@
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,13 +3005,13 @@
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,13 +3019,13 @@
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2967,13 +3033,13 @@
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,13 +3047,13 @@
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,13 +3061,13 @@
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,13 +3075,13 @@
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3023,13 +3089,13 @@
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,13 +3103,13 @@
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3051,13 +3117,13 @@
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3065,13 +3131,13 @@
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3079,13 +3145,13 @@
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3093,13 +3159,13 @@
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3107,13 +3173,13 @@
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3121,13 +3187,13 @@
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3135,13 +3201,13 @@
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3149,13 +3215,13 @@
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3163,13 +3229,13 @@
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3177,13 +3243,13 @@
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,13 +3257,13 @@
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3205,13 +3271,13 @@
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3219,13 +3285,13 @@
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3233,13 +3299,13 @@
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3247,13 +3313,13 @@
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3261,13 +3327,13 @@
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3275,13 +3341,13 @@
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3289,13 +3355,13 @@
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3303,13 +3369,13 @@
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3317,13 +3383,13 @@
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3331,13 +3397,13 @@
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3345,13 +3411,13 @@
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3359,13 +3425,13 @@
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,13 +3439,13 @@
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3387,13 +3453,13 @@
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3401,13 +3467,13 @@
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3415,13 +3481,13 @@
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3429,13 +3495,13 @@
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3443,13 +3509,13 @@
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3457,13 +3523,13 @@
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3471,13 +3537,13 @@
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3485,13 +3551,13 @@
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3499,13 +3565,13 @@
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3513,13 +3579,13 @@
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3527,13 +3593,13 @@
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3541,13 +3607,13 @@
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3555,13 +3621,13 @@
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3569,13 +3635,13 @@
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3583,13 +3649,13 @@
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3597,13 +3663,13 @@
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,13 +3677,13 @@
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3625,13 +3691,13 @@
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3639,13 +3705,13 @@
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3653,13 +3719,13 @@
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3667,13 +3733,13 @@
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3681,13 +3747,13 @@
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3695,13 +3761,13 @@
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3709,13 +3775,13 @@
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3723,13 +3789,13 @@
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3737,13 +3803,13 @@
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3751,13 +3817,13 @@
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3765,13 +3831,13 @@
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3779,13 +3845,13 @@
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3793,13 +3859,13 @@
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3807,13 +3873,13 @@
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3821,13 +3887,13 @@
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3835,13 +3901,13 @@
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3849,13 +3915,13 @@
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3863,13 +3929,13 @@
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3877,13 +3943,13 @@
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3891,13 +3957,13 @@
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3905,13 +3971,13 @@
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3919,13 +3985,13 @@
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3933,13 +3999,13 @@
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3947,13 +4013,13 @@
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3961,13 +4027,13 @@
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3975,13 +4041,13 @@
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3989,13 +4055,13 @@
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4003,13 +4069,13 @@
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4017,13 +4083,13 @@
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4031,13 +4097,13 @@
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4045,13 +4111,13 @@
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4059,13 +4125,13 @@
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4073,13 +4139,13 @@
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4087,13 +4153,13 @@
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4101,13 +4167,13 @@
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4115,13 +4181,13 @@
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4129,13 +4195,13 @@
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4143,13 +4209,13 @@
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4157,13 +4223,13 @@
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4171,13 +4237,13 @@
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4185,13 +4251,13 @@
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4199,13 +4265,13 @@
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4213,13 +4279,13 @@
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4227,13 +4293,13 @@
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4241,13 +4307,13 @@
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4255,13 +4321,13 @@
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4269,13 +4335,13 @@
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -4283,13 +4349,13 @@
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -4297,13 +4363,13 @@
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -4311,13 +4377,13 @@
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -4325,13 +4391,13 @@
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -4339,13 +4405,13 @@
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -4353,13 +4419,13 @@
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -4367,13 +4433,13 @@
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -4381,37 +4447,37 @@
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E152" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F152" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G152" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H152" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I152" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K152" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -4419,34 +4485,34 @@
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D153" t="s">
+        <v>248</v>
+      </c>
+      <c r="E153" t="s">
         <v>242</v>
       </c>
-      <c r="E153" t="s">
-        <v>236</v>
-      </c>
       <c r="F153" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G153" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H153" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I153" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K153" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -4454,13 +4520,13 @@
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -4468,34 +4534,34 @@
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D155" t="s">
+        <v>252</v>
+      </c>
+      <c r="E155" t="s">
+        <v>242</v>
+      </c>
+      <c r="F155" t="s">
+        <v>242</v>
+      </c>
+      <c r="G155" t="s">
+        <v>243</v>
+      </c>
+      <c r="H155" t="s">
+        <v>244</v>
+      </c>
+      <c r="I155" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="J155" t="s">
+        <v>20</v>
+      </c>
+      <c r="K155" t="s">
         <v>246</v>
-      </c>
-      <c r="E155" t="s">
-        <v>236</v>
-      </c>
-      <c r="F155" t="s">
-        <v>236</v>
-      </c>
-      <c r="G155" t="s">
-        <v>237</v>
-      </c>
-      <c r="H155" t="s">
-        <v>238</v>
-      </c>
-      <c r="I155" t="s">
-        <v>239</v>
-      </c>
-      <c r="J155" t="s">
-        <v>21</v>
-      </c>
-      <c r="K155" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -4503,34 +4569,34 @@
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D156" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E156" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F156" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G156" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H156" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I156" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K156" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -4538,13 +4604,13 @@
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D157" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -4552,13 +4618,13 @@
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D158" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -4566,34 +4632,34 @@
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D159" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E159" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F159" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G159" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H159" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I159" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K159" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -4601,34 +4667,34 @@
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H160" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I160" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J160" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K160" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -4636,34 +4702,34 @@
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D161" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" t="s">
+        <v>45</v>
+      </c>
+      <c r="G161" t="s">
         <v>263</v>
       </c>
-      <c r="E161" t="s">
-        <v>17</v>
-      </c>
-      <c r="F161" t="s">
-        <v>46</v>
-      </c>
-      <c r="G161" t="s">
-        <v>257</v>
-      </c>
       <c r="H161" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I161" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J161" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K161" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -4671,37 +4737,37 @@
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D162" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H162" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I162" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K162" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M162" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -4709,34 +4775,34 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D163" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G163" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H163" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I163" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K163" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -4744,37 +4810,37 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D164" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H164" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I164" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J164" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K164" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L164" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -4782,40 +4848,40 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D165" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H165" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I165" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J165" t="s">
+        <v>288</v>
+      </c>
+      <c r="K165" t="s">
+        <v>289</v>
+      </c>
+      <c r="L165" t="s">
         <v>282</v>
       </c>
-      <c r="K165" t="s">
-        <v>283</v>
-      </c>
-      <c r="L165" t="s">
-        <v>276</v>
-      </c>
       <c r="M165" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -4823,40 +4889,40 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D166" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H166" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I166" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J166" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K166" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L166" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M166" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -4864,16 +4930,16 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M167" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -4881,16 +4947,16 @@
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
         <v>70</v>
@@ -4908,7 +4974,7 @@
         <v>74</v>
       </c>
       <c r="L168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -4916,13 +4982,37 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>299</v>
+        <v>305</v>
+      </c>
+      <c r="E169" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" t="s">
+        <v>45</v>
+      </c>
+      <c r="G169" t="s">
+        <v>306</v>
+      </c>
+      <c r="H169" t="s">
+        <v>307</v>
+      </c>
+      <c r="I169" t="s">
+        <v>308</v>
+      </c>
+      <c r="J169" t="s">
+        <v>309</v>
+      </c>
+      <c r="K169" t="s">
+        <v>310</v>
+      </c>
+      <c r="L169" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -4930,19 +5020,19 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G170" t="s">
         <v>70</v>
@@ -4965,13 +5055,13 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -4979,37 +5069,37 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
         <v>70</v>
       </c>
       <c r="H172" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="I172" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="J172" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="K172" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="L172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -5017,13 +5107,13 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -5031,13 +5121,13 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -5045,13 +5135,13 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -5059,13 +5149,13 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5073,13 +5163,13 @@
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5087,13 +5177,13 @@
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5101,13 +5191,13 @@
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5115,13 +5205,13 @@
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5129,13 +5219,13 @@
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5143,13 +5233,13 @@
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5157,13 +5247,13 @@
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5171,13 +5261,13 @@
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5185,13 +5275,13 @@
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5199,13 +5289,13 @@
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5213,13 +5303,13 @@
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5227,13 +5317,13 @@
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5241,13 +5331,13 @@
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5255,13 +5345,13 @@
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5269,13 +5359,13 @@
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5283,13 +5373,13 @@
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5297,13 +5387,13 @@
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5311,13 +5401,13 @@
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5325,13 +5415,13 @@
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,13 +5429,13 @@
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,13 +5443,13 @@
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5367,13 +5457,13 @@
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,13 +5471,13 @@
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5395,13 +5485,13 @@
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5409,13 +5499,13 @@
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5423,13 +5513,13 @@
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5437,13 +5527,13 @@
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5451,13 +5541,13 @@
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5465,13 +5555,13 @@
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5479,13 +5569,13 @@
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -5493,13 +5583,13 @@
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5507,13 +5597,13 @@
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5521,13 +5611,13 @@
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5535,13 +5625,13 @@
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5549,13 +5639,13 @@
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5563,13 +5653,13 @@
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5577,13 +5667,13 @@
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5591,13 +5681,13 @@
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5605,13 +5695,13 @@
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5619,13 +5709,13 @@
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5633,13 +5723,13 @@
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5647,13 +5737,13 @@
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5661,13 +5751,13 @@
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5675,13 +5765,13 @@
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5689,13 +5779,13 @@
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5703,13 +5793,13 @@
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5717,13 +5807,13 @@
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5731,13 +5821,13 @@
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5745,13 +5835,13 @@
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5759,13 +5849,13 @@
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5773,13 +5863,13 @@
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5787,13 +5877,13 @@
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5801,13 +5891,13 @@
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5815,13 +5905,13 @@
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -5829,13 +5919,13 @@
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5843,13 +5933,13 @@
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5857,13 +5947,13 @@
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5871,13 +5961,13 @@
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -5885,13 +5975,13 @@
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -5899,13 +5989,13 @@
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5913,13 +6003,13 @@
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -5927,13 +6017,13 @@
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -5941,13 +6031,13 @@
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -5955,13 +6045,13 @@
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -5969,13 +6059,13 @@
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -5983,13 +6073,13 @@
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5997,13 +6087,13 @@
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6011,13 +6101,13 @@
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6025,13 +6115,13 @@
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6039,13 +6129,13 @@
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6053,13 +6143,13 @@
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6067,13 +6157,13 @@
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6081,13 +6171,13 @@
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6095,13 +6185,13 @@
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6109,13 +6199,13 @@
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6123,13 +6213,13 @@
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6137,13 +6227,13 @@
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6151,13 +6241,13 @@
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6165,13 +6255,13 @@
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6179,13 +6269,13 @@
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -6193,13 +6283,13 @@
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6207,13 +6297,13 @@
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6221,13 +6311,13 @@
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6235,13 +6325,13 @@
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6249,13 +6339,13 @@
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6263,13 +6353,13 @@
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6277,13 +6367,13 @@
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6291,13 +6381,13 @@
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6305,13 +6395,13 @@
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6319,13 +6409,13 @@
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6333,13 +6423,13 @@
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6347,13 +6437,13 @@
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6361,13 +6451,13 @@
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6375,13 +6465,13 @@
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6389,13 +6479,13 @@
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6403,13 +6493,13 @@
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -6417,13 +6507,13 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -6431,13 +6521,13 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -6445,13 +6535,13 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -6459,13 +6549,13 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -6473,16 +6563,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D277" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -6490,34 +6580,34 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D278" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G278" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H278" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I278" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J278" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K278" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -6525,37 +6615,37 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D279" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F279" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G279" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H279" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I279" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J279" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K279" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L279" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -6563,34 +6653,34 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D280" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F280" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G280" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H280" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I280" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J280" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K280" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -6598,34 +6688,34 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D281" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F281" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G281" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H281" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I281" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J281" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K281" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -6633,34 +6723,34 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D282" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F282" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G282" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H282" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I282" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J282" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K282" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -6668,34 +6758,34 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D283" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F283" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G283" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H283" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I283" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J283" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K283" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -6703,34 +6793,34 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D284" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F284" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G284" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H284" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I284" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J284" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K284" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -6738,34 +6828,34 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D285" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F285" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G285" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H285" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I285" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J285" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K285" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -6773,37 +6863,37 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D286" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G286" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H286" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I286" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J286" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K286" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L286" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -6811,16 +6901,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -6828,16 +6918,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D288" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
@@ -6845,29 +6935,29 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D289" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H289" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I289" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J289" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K289" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
@@ -6875,34 +6965,34 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D290" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G290" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H290" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I290" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J290" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K290" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L290" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
@@ -6910,16 +7000,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D291" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
@@ -6927,37 +7017,37 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D292" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G292" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H292" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I292" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J292" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K292" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L292" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -6965,34 +7055,34 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D293" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F293" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G293" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H293" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I293" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J293" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K293" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
@@ -7000,37 +7090,37 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D294" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F294" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G294" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H294" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I294" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J294" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K294" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L294" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
@@ -7038,37 +7128,37 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D295" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F295" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G295" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H295" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I295" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J295" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K295" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L295" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
@@ -7076,34 +7166,34 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D296" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F296" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G296" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H296" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I296" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J296" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K296" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
@@ -7111,34 +7201,34 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D297" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F297" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G297" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H297" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I297" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J297" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K297" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
@@ -7146,34 +7236,34 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D298" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F298" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G298" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H298" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I298" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J298" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K298" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
@@ -7181,34 +7271,34 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D299" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F299" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G299" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H299" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I299" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J299" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K299" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
@@ -7216,40 +7306,40 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D300" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F300" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G300" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="H300" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="I300" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J300" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="K300" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="L300" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M300" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -7257,37 +7347,37 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D301" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F301" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G301" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H301" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I301" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K301" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L301" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7314,10 +7404,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7325,7 +7415,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7333,7 +7423,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7341,7 +7431,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7349,7 +7439,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7357,7 +7447,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7365,7 +7455,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7373,7 +7463,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7381,7 +7471,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7389,7 +7479,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,7 +7487,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7405,7 +7495,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7413,7 +7503,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7421,7 +7511,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7429,7 +7519,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7437,7 +7527,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -7458,10 +7548,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +7559,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7477,7 +7567,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7485,7 +7575,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7493,7 +7583,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7501,7 +7591,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7509,7 +7599,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7517,7 +7607,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7525,7 +7615,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7533,7 +7623,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +7631,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7571,13 +7661,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="I1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7585,13 +7675,13 @@
         <v>125785</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7599,13 +7689,13 @@
         <v>129098</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7613,16 +7703,16 @@
         <v>132607</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7633,10 +7723,10 @@
         <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7647,10 +7737,10 @@
         <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7661,10 +7751,10 @@
         <v>6270</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7675,10 +7765,10 @@
         <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7686,13 +7776,13 @@
         <v>608563</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7703,10 +7793,10 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7717,10 +7807,10 @@
         <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7731,10 +7821,10 @@
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7745,10 +7835,10 @@
         <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7759,10 +7849,10 @@
         <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7770,13 +7860,13 @@
         <v>994670</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -7784,10 +7874,10 @@
         <v>159320</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>4</v>
@@ -7798,13 +7888,13 @@
         <v>170406</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7812,13 +7902,13 @@
         <v>213190</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7826,10 +7916,10 @@
         <v>309014</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>4</v>
@@ -7840,13 +7930,13 @@
         <v>312435</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7854,13 +7944,13 @@
         <v>441310</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7868,13 +7958,13 @@
         <v>505418</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7882,10 +7972,10 @@
         <v>538067</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>4</v>
@@ -7896,13 +7986,13 @@
         <v>588655</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7910,10 +8000,10 @@
         <v>590307</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>4</v>
@@ -7924,16 +8014,16 @@
         <v>645107</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7941,10 +8031,10 @@
         <v>847633</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -7955,13 +8045,13 @@
         <v>872696</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7969,10 +8059,10 @@
         <v>889142</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -7983,10 +8073,10 @@
         <v>985070</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -7997,10 +8087,10 @@
         <v>988429</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83854D4-A906-498A-915D-948504BF88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F77426A-61BB-476B-9006-9B6E6840D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="494">
   <si>
     <t>acount</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Patient_Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <t>B97N</t>
@@ -218,7 +221,8 @@
     <t>2025-01-02</t>
   </si>
   <si>
-    <t>מטופל מתרגל כפעמיים ביום.</t>
+    <t>מטופל מתרגל כפעמיים ביום.|
+לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול</t>
   </si>
   <si>
     <t>QF5A</t>
@@ -950,6 +954,10 @@
     <t>01-007</t>
   </si>
   <si>
+    <t>לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול|
+לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול</t>
+  </si>
+  <si>
     <t>8X3P</t>
   </si>
   <si>
@@ -1466,7 +1474,10 @@
     <t>2025-02-16</t>
   </si>
   <si>
-    <t xml:space="preserve">חשבון לצורך פיתוח </t>
+    <t>חשבון לצורך פיתוח |
+בדיקה 23.032024|
+בדיקה 23.032024|
+בדיקה 23.032024</t>
   </si>
   <si>
     <t>LPML</t>
@@ -1512,9 +1523,6 @@
   </si>
   <si>
     <t>sheeet</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1994,7 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2033,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2041,40 +2049,40 @@
         <v>132607</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2082,40 +2090,40 @@
         <v>608563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2123,34 +2131,34 @@
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2158,37 +2166,37 @@
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2196,37 +2204,37 @@
         <v>523678</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2234,40 +2242,40 @@
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2275,37 +2283,37 @@
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2313,34 +2321,34 @@
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2348,13 +2356,13 @@
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2362,37 +2370,37 @@
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2400,34 +2408,34 @@
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2435,13 +2443,13 @@
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2449,37 +2457,37 @@
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2487,34 +2495,34 @@
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2522,34 +2530,34 @@
         <v>775348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2557,13 +2565,13 @@
         <v>559121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2571,13 +2579,13 @@
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2585,13 +2593,13 @@
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2599,13 +2607,13 @@
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2613,13 +2621,13 @@
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2627,13 +2635,13 @@
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2641,13 +2649,13 @@
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2655,13 +2663,13 @@
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2669,13 +2677,13 @@
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2683,13 +2691,13 @@
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2697,13 +2705,13 @@
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,13 +2719,13 @@
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2725,13 +2733,13 @@
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2739,13 +2747,13 @@
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2753,13 +2761,13 @@
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2767,13 +2775,13 @@
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2781,13 +2789,13 @@
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2795,13 +2803,13 @@
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2809,13 +2817,13 @@
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2823,13 +2831,13 @@
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2837,13 +2845,13 @@
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2851,13 +2859,13 @@
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2865,13 +2873,13 @@
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2879,13 +2887,13 @@
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2893,13 +2901,13 @@
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2907,13 +2915,13 @@
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2921,13 +2929,13 @@
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2935,13 +2943,13 @@
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2949,13 +2957,13 @@
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2963,13 +2971,13 @@
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2977,13 +2985,13 @@
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2991,13 +2999,13 @@
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3005,13 +3013,13 @@
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3019,13 +3027,13 @@
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3033,13 +3041,13 @@
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3047,13 +3055,13 @@
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3061,13 +3069,13 @@
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3075,13 +3083,13 @@
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,13 +3097,13 @@
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3103,13 +3111,13 @@
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3117,13 +3125,13 @@
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3131,13 +3139,13 @@
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3145,13 +3153,13 @@
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3159,13 +3167,13 @@
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3173,13 +3181,13 @@
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3187,13 +3195,13 @@
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3201,13 +3209,13 @@
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3215,13 +3223,13 @@
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3229,13 +3237,13 @@
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3243,13 +3251,13 @@
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3257,13 +3265,13 @@
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,13 +3279,13 @@
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,13 +3293,13 @@
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3299,13 +3307,13 @@
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,13 +3321,13 @@
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3327,13 +3335,13 @@
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,13 +3349,13 @@
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3355,13 +3363,13 @@
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3369,13 +3377,13 @@
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3383,13 +3391,13 @@
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3397,13 +3405,13 @@
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3411,13 +3419,13 @@
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,13 +3433,13 @@
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3439,13 +3447,13 @@
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3453,13 +3461,13 @@
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3467,13 +3475,13 @@
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3481,13 +3489,13 @@
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3495,13 +3503,13 @@
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3509,13 +3517,13 @@
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3523,13 +3531,13 @@
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3537,13 +3545,13 @@
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3551,13 +3559,13 @@
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3565,13 +3573,13 @@
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3579,13 +3587,13 @@
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3593,13 +3601,13 @@
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3607,13 +3615,13 @@
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3621,13 +3629,13 @@
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3635,13 +3643,13 @@
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3649,13 +3657,13 @@
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3663,13 +3671,13 @@
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3677,13 +3685,13 @@
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3691,13 +3699,13 @@
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3705,13 +3713,13 @@
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3719,13 +3727,13 @@
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3733,13 +3741,13 @@
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3747,13 +3755,13 @@
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,13 +3769,13 @@
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3775,13 +3783,13 @@
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3789,13 +3797,13 @@
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3803,13 +3811,13 @@
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3817,13 +3825,13 @@
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3831,13 +3839,13 @@
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3845,13 +3853,13 @@
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3859,13 +3867,13 @@
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3873,13 +3881,13 @@
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3887,13 +3895,13 @@
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3901,13 +3909,13 @@
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3915,13 +3923,13 @@
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3929,13 +3937,13 @@
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3943,13 +3951,13 @@
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3957,13 +3965,13 @@
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,13 +3979,13 @@
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3985,13 +3993,13 @@
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3999,13 +4007,13 @@
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -4013,13 +4021,13 @@
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4027,13 +4035,13 @@
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4041,13 +4049,13 @@
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4055,13 +4063,13 @@
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4069,13 +4077,13 @@
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4083,13 +4091,13 @@
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4097,13 +4105,13 @@
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4111,13 +4119,13 @@
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4125,13 +4133,13 @@
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4139,13 +4147,13 @@
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4153,13 +4161,13 @@
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4167,13 +4175,13 @@
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4181,13 +4189,13 @@
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4195,13 +4203,13 @@
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4209,13 +4217,13 @@
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4223,13 +4231,13 @@
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4237,13 +4245,13 @@
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4251,13 +4259,13 @@
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4265,13 +4273,13 @@
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4279,13 +4287,13 @@
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4293,13 +4301,13 @@
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4307,13 +4315,13 @@
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4321,13 +4329,13 @@
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4335,13 +4343,13 @@
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -4349,13 +4357,13 @@
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -4363,13 +4371,13 @@
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -4377,13 +4385,13 @@
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -4391,13 +4399,13 @@
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -4405,13 +4413,13 @@
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -4419,13 +4427,13 @@
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -4433,13 +4441,13 @@
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -4447,37 +4455,37 @@
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D152" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E152" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F152" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G152" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I152" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -4485,34 +4493,34 @@
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D153" t="s">
+        <v>249</v>
+      </c>
+      <c r="E153" t="s">
+        <v>243</v>
+      </c>
+      <c r="F153" t="s">
+        <v>243</v>
+      </c>
+      <c r="G153" t="s">
+        <v>244</v>
+      </c>
+      <c r="H153" t="s">
+        <v>245</v>
+      </c>
+      <c r="I153" t="s">
+        <v>246</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
         <v>247</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D153" t="s">
-        <v>248</v>
-      </c>
-      <c r="E153" t="s">
-        <v>242</v>
-      </c>
-      <c r="F153" t="s">
-        <v>242</v>
-      </c>
-      <c r="G153" t="s">
-        <v>243</v>
-      </c>
-      <c r="H153" t="s">
-        <v>244</v>
-      </c>
-      <c r="I153" t="s">
-        <v>245</v>
-      </c>
-      <c r="J153" t="s">
-        <v>20</v>
-      </c>
-      <c r="K153" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -4520,13 +4528,13 @@
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -4534,34 +4542,34 @@
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E155" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F155" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G155" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H155" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I155" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -4569,34 +4577,34 @@
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D156" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E156" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F156" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G156" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I156" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -4604,13 +4612,13 @@
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D157" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -4618,13 +4626,13 @@
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D158" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -4632,34 +4640,34 @@
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D159" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E159" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F159" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G159" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -4667,34 +4675,34 @@
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I160" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -4702,34 +4710,34 @@
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="s">
+        <v>46</v>
+      </c>
+      <c r="G161" t="s">
+        <v>264</v>
+      </c>
+      <c r="H161" t="s">
+        <v>265</v>
+      </c>
+      <c r="I161" t="s">
+        <v>266</v>
+      </c>
+      <c r="J161" t="s">
+        <v>267</v>
+      </c>
+      <c r="K161" t="s">
         <v>268</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F161" t="s">
-        <v>45</v>
-      </c>
-      <c r="G161" t="s">
-        <v>263</v>
-      </c>
-      <c r="H161" t="s">
-        <v>264</v>
-      </c>
-      <c r="I161" t="s">
-        <v>265</v>
-      </c>
-      <c r="J161" t="s">
-        <v>266</v>
-      </c>
-      <c r="K161" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -4737,37 +4745,37 @@
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I162" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -4775,34 +4783,34 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -4810,37 +4818,37 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H164" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I164" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J164" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K164" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L164" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -4848,40 +4856,40 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" t="s">
+        <v>285</v>
+      </c>
+      <c r="E165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>286</v>
+      </c>
+      <c r="H165" t="s">
+        <v>287</v>
+      </c>
+      <c r="I165" t="s">
+        <v>288</v>
+      </c>
+      <c r="J165" t="s">
+        <v>289</v>
+      </c>
+      <c r="K165" t="s">
+        <v>290</v>
+      </c>
+      <c r="L165" t="s">
         <v>283</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D165" t="s">
-        <v>284</v>
-      </c>
-      <c r="E165" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s">
-        <v>285</v>
-      </c>
-      <c r="H165" t="s">
-        <v>286</v>
-      </c>
-      <c r="I165" t="s">
-        <v>287</v>
-      </c>
-      <c r="J165" t="s">
-        <v>288</v>
-      </c>
-      <c r="K165" t="s">
-        <v>289</v>
-      </c>
-      <c r="L165" t="s">
-        <v>282</v>
-      </c>
       <c r="M165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -4889,40 +4897,40 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I166" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L166" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -4930,16 +4938,16 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -4947,34 +4955,37 @@
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H168" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I168" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J168" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K168" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L168" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="M168" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -4982,37 +4993,37 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H169" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I169" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J169" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K169" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -5020,34 +5031,34 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E170" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H170" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I170" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J170" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K170" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -5055,13 +5066,13 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -5069,37 +5080,37 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H172" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I172" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J172" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K172" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -5107,13 +5118,13 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -5121,13 +5132,13 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -5135,13 +5146,13 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -5149,13 +5160,13 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5163,13 +5174,13 @@
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5177,13 +5188,13 @@
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5191,13 +5202,13 @@
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5205,13 +5216,13 @@
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5219,13 +5230,13 @@
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5233,13 +5244,13 @@
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5247,13 +5258,13 @@
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5261,13 +5272,13 @@
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5275,13 +5286,13 @@
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5289,13 +5300,13 @@
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5303,13 +5314,13 @@
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5317,13 +5328,13 @@
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5331,13 +5342,13 @@
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5345,13 +5356,13 @@
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5359,13 +5370,13 @@
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5373,13 +5384,13 @@
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5387,13 +5398,13 @@
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5401,13 +5412,13 @@
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5415,13 +5426,13 @@
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5429,13 +5440,13 @@
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5443,13 +5454,13 @@
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5457,13 +5468,13 @@
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5471,13 +5482,13 @@
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5485,13 +5496,13 @@
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5499,13 +5510,13 @@
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5513,13 +5524,13 @@
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5527,13 +5538,13 @@
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5541,13 +5552,13 @@
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5555,13 +5566,13 @@
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5569,13 +5580,13 @@
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -5583,13 +5594,13 @@
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5597,13 +5608,13 @@
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5611,13 +5622,13 @@
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5625,13 +5636,13 @@
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5639,13 +5650,13 @@
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5653,13 +5664,13 @@
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5667,13 +5678,13 @@
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5681,13 +5692,13 @@
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5695,13 +5706,13 @@
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5709,13 +5720,13 @@
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5723,13 +5734,13 @@
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5737,13 +5748,13 @@
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5751,13 +5762,13 @@
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5765,13 +5776,13 @@
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5779,13 +5790,13 @@
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5793,13 +5804,13 @@
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5807,13 +5818,13 @@
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5821,13 +5832,13 @@
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5835,13 +5846,13 @@
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5849,13 +5860,13 @@
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5863,13 +5874,13 @@
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5877,13 +5888,13 @@
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5891,13 +5902,13 @@
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5905,13 +5916,13 @@
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -5919,13 +5930,13 @@
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5933,13 +5944,13 @@
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5947,13 +5958,13 @@
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5961,13 +5972,13 @@
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -5975,13 +5986,13 @@
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -5989,13 +6000,13 @@
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -6003,13 +6014,13 @@
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -6017,13 +6028,13 @@
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -6031,13 +6042,13 @@
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -6045,13 +6056,13 @@
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -6059,13 +6070,13 @@
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -6073,13 +6084,13 @@
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -6087,13 +6098,13 @@
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6101,13 +6112,13 @@
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6115,13 +6126,13 @@
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6129,13 +6140,13 @@
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6143,13 +6154,13 @@
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6157,13 +6168,13 @@
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6171,13 +6182,13 @@
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6185,13 +6196,13 @@
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6199,13 +6210,13 @@
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6213,13 +6224,13 @@
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6227,13 +6238,13 @@
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6241,13 +6252,13 @@
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6255,13 +6266,13 @@
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6269,13 +6280,13 @@
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -6283,13 +6294,13 @@
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6297,13 +6308,13 @@
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6311,13 +6322,13 @@
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6325,13 +6336,13 @@
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6339,13 +6350,13 @@
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6353,13 +6364,13 @@
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6367,13 +6378,13 @@
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6381,13 +6392,13 @@
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6395,13 +6406,13 @@
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6409,13 +6420,13 @@
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6423,13 +6434,13 @@
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6437,13 +6448,13 @@
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6451,13 +6462,13 @@
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6465,13 +6476,13 @@
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6479,13 +6490,13 @@
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6493,13 +6504,13 @@
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -6507,13 +6518,13 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -6521,13 +6532,13 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -6535,13 +6546,13 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -6549,13 +6560,13 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -6563,16 +6574,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D277" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -6580,34 +6591,34 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D278" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F278" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H278" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I278" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J278" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K278" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -6615,37 +6626,37 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D279" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F279" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G279" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H279" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I279" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J279" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L279" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -6653,34 +6664,34 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D280" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F280" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G280" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H280" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I280" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -6688,34 +6699,34 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D281" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F281" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G281" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H281" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I281" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J281" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K281" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -6723,34 +6734,34 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D282" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F282" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G282" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H282" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I282" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J282" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K282" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -6758,34 +6769,34 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D283" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F283" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G283" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H283" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I283" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J283" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -6793,34 +6804,34 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D284" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F284" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G284" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H284" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I284" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J284" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K284" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -6828,34 +6839,34 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D285" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F285" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G285" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H285" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I285" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J285" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K285" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -6863,37 +6874,37 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D286" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G286" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H286" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I286" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J286" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K286" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L286" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -6901,16 +6912,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -6918,16 +6929,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D288" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
@@ -6935,29 +6946,29 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D289" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H289" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I289" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J289" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
@@ -6965,34 +6976,34 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D290" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G290" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H290" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I290" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J290" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L290" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
@@ -7000,16 +7011,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D291" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
@@ -7017,37 +7028,37 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D292" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F292" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G292" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H292" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I292" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L292" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -7055,34 +7066,34 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D293" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F293" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G293" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H293" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I293" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J293" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
@@ -7090,37 +7101,37 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D294" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F294" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G294" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H294" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I294" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J294" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K294" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L294" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
@@ -7128,37 +7139,37 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D295" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F295" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G295" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H295" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I295" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J295" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K295" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L295" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
@@ -7166,34 +7177,34 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D296" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F296" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G296" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H296" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I296" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J296" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K296" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
@@ -7201,34 +7212,34 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D297" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F297" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H297" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I297" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J297" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K297" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
@@ -7236,34 +7247,34 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D298" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F298" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G298" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H298" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I298" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J298" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K298" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
@@ -7271,34 +7282,34 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D299" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F299" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H299" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I299" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J299" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K299" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
@@ -7306,40 +7317,40 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D300" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F300" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G300" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H300" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I300" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J300" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K300" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L300" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M300" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -7347,37 +7358,37 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D301" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F301" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G301" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H301" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I301" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J301" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L301" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7404,10 +7415,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7415,7 +7426,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7423,7 +7434,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7431,7 +7442,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7439,7 +7450,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7447,7 +7458,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7455,7 +7466,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7463,7 +7474,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7471,7 +7482,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7479,7 +7490,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7487,7 +7498,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7495,7 +7506,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7503,7 +7514,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7511,7 +7522,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7519,7 +7530,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7527,7 +7538,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -7548,10 +7559,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7559,7 +7570,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7567,7 +7578,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7575,7 +7586,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7583,7 +7594,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7591,7 +7602,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7599,7 +7610,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7607,7 +7618,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7615,7 +7626,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7623,7 +7634,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7631,7 +7642,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7661,13 +7672,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7675,13 +7686,13 @@
         <v>125785</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7689,13 +7700,13 @@
         <v>129098</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7703,16 +7714,16 @@
         <v>132607</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7720,13 +7731,13 @@
         <v>243153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7734,13 +7745,13 @@
         <v>441626</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7751,10 +7762,10 @@
         <v>6270</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7762,13 +7773,13 @@
         <v>594572</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7776,13 +7787,13 @@
         <v>608563</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7790,13 +7801,13 @@
         <v>663230</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7804,13 +7815,13 @@
         <v>737460</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7818,13 +7829,13 @@
         <v>738266</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7832,13 +7843,13 @@
         <v>797463</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7846,13 +7857,13 @@
         <v>951446</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7860,13 +7871,13 @@
         <v>994670</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -7874,10 +7885,10 @@
         <v>159320</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>4</v>
@@ -7888,13 +7899,13 @@
         <v>170406</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7902,13 +7913,13 @@
         <v>213190</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7916,10 +7927,10 @@
         <v>309014</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>4</v>
@@ -7930,13 +7941,13 @@
         <v>312435</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7944,13 +7955,13 @@
         <v>441310</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7958,13 +7969,13 @@
         <v>505418</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7972,10 +7983,10 @@
         <v>538067</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>4</v>
@@ -7986,13 +7997,13 @@
         <v>588655</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8000,10 +8011,10 @@
         <v>590307</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>4</v>
@@ -8014,16 +8025,16 @@
         <v>645107</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8031,10 +8042,10 @@
         <v>847633</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -8045,13 +8056,13 @@
         <v>872696</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -8059,10 +8070,10 @@
         <v>889142</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -8073,10 +8084,10 @@
         <v>985070</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -8087,10 +8098,10 @@
         <v>988429</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F77426A-61BB-476B-9006-9B6E6840D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF9A8C1-53EE-4C75-BACE-6A5DC5D49E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1474,12 +1474,6 @@
     <t>2025-02-16</t>
   </si>
   <si>
-    <t>חשבון לצורך פיתוח |
-בדיקה 23.032024|
-בדיקה 23.032024|
-בדיקה 23.032024</t>
-  </si>
-  <si>
     <t>LPML</t>
   </si>
   <si>
@@ -1523,6 +1517,9 @@
   </si>
   <si>
     <t>sheeet</t>
+  </si>
+  <si>
+    <t>חשבון לצורך פיתוח|</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +1990,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="N297" sqref="N297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7350,7 +7347,7 @@
         <v>31</v>
       </c>
       <c r="M300" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -7358,13 +7355,13 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D301" t="s">
         <v>479</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D301" t="s">
-        <v>480</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>243</v>
@@ -7415,10 +7412,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7538,7 +7535,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7559,10 +7556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7672,13 +7669,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" t="s">
         <v>484</v>
-      </c>
-      <c r="I1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7723,7 +7720,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7737,7 +7734,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7751,7 +7748,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7779,7 +7776,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7793,7 +7790,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7807,7 +7804,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7821,7 +7818,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7835,7 +7832,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7849,7 +7846,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7863,7 +7860,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7975,7 +7972,7 @@
         <v>241</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8031,10 +8028,10 @@
         <v>241</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8062,7 +8059,7 @@
         <v>241</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF9A8C1-53EE-4C75-BACE-6A5DC5D49E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A55EB1-ED74-4CC1-AAA3-F335C6764A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$I$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -861,9 +861,6 @@
     <t>2023-08-29</t>
   </si>
   <si>
-    <t>13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|דכדגכד|דכדגכד|דכדגכד|דכדגכד</t>
-  </si>
-  <si>
     <t>MMI0</t>
   </si>
   <si>
@@ -954,10 +951,6 @@
     <t>01-007</t>
   </si>
   <si>
-    <t>לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול|
-לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול</t>
-  </si>
-  <si>
     <t>8X3P</t>
   </si>
   <si>
@@ -1474,6 +1467,12 @@
     <t>2025-02-16</t>
   </si>
   <si>
+    <t>חשבון לצורך פיתוח||
+בדיקה לאחר סידור הבאג|
+ניסיון שני |
+ניסיון שלישי</t>
+  </si>
+  <si>
     <t>LPML</t>
   </si>
   <si>
@@ -1519,7 +1518,12 @@
     <t>sheeet</t>
   </si>
   <si>
-    <t>חשבון לצורך פיתוח|</t>
+    <t>13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול|
+31/3/24 התחיל תרגול ראשון של קוגניטיבי. נותר לו לפחות עוד כחמישה שבועות לעבוד לפני שיסיים את שלב הלמידה (הערכה אופטימית)
+</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1685,6 +1689,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1990,8 +1997,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="N297" sqref="N297"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4772,7 +4779,7 @@
         <v>247</v>
       </c>
       <c r="M162" t="s">
-        <v>274</v>
+        <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -4780,13 +4787,13 @@
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D163" t="s">
         <v>275</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D163" t="s">
-        <v>276</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -4815,13 +4822,13 @@
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D164" t="s">
         <v>277</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D164" t="s">
-        <v>278</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -4833,19 +4840,19 @@
         <v>273</v>
       </c>
       <c r="H164" t="s">
+        <v>278</v>
+      </c>
+      <c r="I164" t="s">
         <v>279</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>280</v>
       </c>
-      <c r="J164" t="s">
+      <c r="K164" t="s">
         <v>281</v>
       </c>
-      <c r="K164" t="s">
+      <c r="L164" t="s">
         <v>282</v>
-      </c>
-      <c r="L164" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -4853,13 +4860,13 @@
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" t="s">
         <v>284</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D165" t="s">
-        <v>285</v>
       </c>
       <c r="E165" t="s">
         <v>17</v>
@@ -4868,25 +4875,25 @@
         <v>17</v>
       </c>
       <c r="G165" t="s">
+        <v>285</v>
+      </c>
+      <c r="H165" t="s">
         <v>286</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>287</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>288</v>
       </c>
-      <c r="J165" t="s">
+      <c r="K165" t="s">
         <v>289</v>
       </c>
-      <c r="K165" t="s">
+      <c r="L165" t="s">
+        <v>282</v>
+      </c>
+      <c r="M165" t="s">
         <v>290</v>
-      </c>
-      <c r="L165" t="s">
-        <v>283</v>
-      </c>
-      <c r="M165" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -4894,13 +4901,13 @@
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D166" t="s">
         <v>292</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D166" t="s">
-        <v>293</v>
       </c>
       <c r="E166" t="s">
         <v>17</v>
@@ -4909,25 +4916,25 @@
         <v>46</v>
       </c>
       <c r="G166" t="s">
+        <v>293</v>
+      </c>
+      <c r="H166" t="s">
         <v>294</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>295</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>296</v>
       </c>
-      <c r="J166" t="s">
+      <c r="K166" t="s">
         <v>297</v>
       </c>
-      <c r="K166" t="s">
+      <c r="L166" t="s">
+        <v>282</v>
+      </c>
+      <c r="M166" t="s">
         <v>298</v>
-      </c>
-      <c r="L166" t="s">
-        <v>283</v>
-      </c>
-      <c r="M166" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -4935,30 +4942,30 @@
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D167" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D167" s="12" t="s">
+      <c r="M167" t="s">
         <v>301</v>
       </c>
-      <c r="M167" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D168" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="F168" t="s">
         <v>46</v>
@@ -4981,8 +4988,8 @@
       <c r="L168" t="s">
         <v>31</v>
       </c>
-      <c r="M168" t="s">
-        <v>305</v>
+      <c r="M168" s="19" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -4990,13 +4997,13 @@
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E169" t="s">
         <v>17</v>
@@ -5005,19 +5012,19 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
+        <v>306</v>
+      </c>
+      <c r="H169" t="s">
+        <v>307</v>
+      </c>
+      <c r="I169" t="s">
         <v>308</v>
       </c>
-      <c r="H169" t="s">
+      <c r="J169" t="s">
         <v>309</v>
       </c>
-      <c r="I169" t="s">
+      <c r="K169" t="s">
         <v>310</v>
-      </c>
-      <c r="J169" t="s">
-        <v>311</v>
-      </c>
-      <c r="K169" t="s">
-        <v>312</v>
       </c>
       <c r="L169" t="s">
         <v>23</v>
@@ -5028,13 +5035,13 @@
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E170" t="s">
         <v>17</v>
@@ -5063,13 +5070,13 @@
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -5077,13 +5084,13 @@
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E172" t="s">
         <v>17</v>
@@ -5095,16 +5102,16 @@
         <v>71</v>
       </c>
       <c r="H172" t="s">
+        <v>317</v>
+      </c>
+      <c r="I172" t="s">
+        <v>318</v>
+      </c>
+      <c r="J172" t="s">
         <v>319</v>
       </c>
-      <c r="I172" t="s">
+      <c r="K172" t="s">
         <v>320</v>
-      </c>
-      <c r="J172" t="s">
-        <v>321</v>
-      </c>
-      <c r="K172" t="s">
-        <v>322</v>
       </c>
       <c r="L172" t="s">
         <v>31</v>
@@ -5115,13 +5122,13 @@
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -5129,13 +5136,13 @@
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -5143,13 +5150,13 @@
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -5157,13 +5164,13 @@
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5171,13 +5178,13 @@
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5185,13 +5192,13 @@
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5199,13 +5206,13 @@
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5213,13 +5220,13 @@
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5227,13 +5234,13 @@
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5241,13 +5248,13 @@
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5255,13 +5262,13 @@
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5269,13 +5276,13 @@
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5283,13 +5290,13 @@
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5297,13 +5304,13 @@
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5311,13 +5318,13 @@
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5325,13 +5332,13 @@
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,13 +5346,13 @@
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,13 +5360,13 @@
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5367,13 +5374,13 @@
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,13 +5388,13 @@
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5395,13 +5402,13 @@
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5409,13 +5416,13 @@
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5423,13 +5430,13 @@
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5437,13 +5444,13 @@
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5451,13 +5458,13 @@
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5465,13 +5472,13 @@
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5479,13 +5486,13 @@
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5493,13 +5500,13 @@
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5507,13 +5514,13 @@
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5521,13 +5528,13 @@
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5535,13 +5542,13 @@
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5549,13 +5556,13 @@
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5563,13 +5570,13 @@
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5577,13 +5584,13 @@
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -5591,13 +5598,13 @@
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5605,13 +5612,13 @@
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5619,13 +5626,13 @@
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5633,13 +5640,13 @@
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5647,13 +5654,13 @@
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5661,13 +5668,13 @@
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5675,13 +5682,13 @@
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5689,13 +5696,13 @@
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5703,13 +5710,13 @@
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5717,13 +5724,13 @@
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5731,13 +5738,13 @@
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5745,13 +5752,13 @@
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5759,13 +5766,13 @@
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5773,13 +5780,13 @@
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5787,13 +5794,13 @@
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5801,13 +5808,13 @@
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5815,13 +5822,13 @@
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5829,13 +5836,13 @@
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5843,13 +5850,13 @@
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5857,13 +5864,13 @@
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5871,13 +5878,13 @@
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5885,13 +5892,13 @@
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5899,13 +5906,13 @@
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5913,13 +5920,13 @@
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -5927,13 +5934,13 @@
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5941,13 +5948,13 @@
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5955,13 +5962,13 @@
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5969,13 +5976,13 @@
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -5983,13 +5990,13 @@
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -5997,13 +6004,13 @@
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -6011,13 +6018,13 @@
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -6025,13 +6032,13 @@
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -6039,13 +6046,13 @@
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -6053,13 +6060,13 @@
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -6067,13 +6074,13 @@
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -6081,13 +6088,13 @@
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -6095,13 +6102,13 @@
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6109,13 +6116,13 @@
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6123,13 +6130,13 @@
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6137,13 +6144,13 @@
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6151,13 +6158,13 @@
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6165,13 +6172,13 @@
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6179,13 +6186,13 @@
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6193,13 +6200,13 @@
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6207,13 +6214,13 @@
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6221,13 +6228,13 @@
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6235,13 +6242,13 @@
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6249,13 +6256,13 @@
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6263,13 +6270,13 @@
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6277,13 +6284,13 @@
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -6291,13 +6298,13 @@
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6305,13 +6312,13 @@
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6319,13 +6326,13 @@
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6333,13 +6340,13 @@
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6347,13 +6354,13 @@
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6361,13 +6368,13 @@
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6375,13 +6382,13 @@
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6389,13 +6396,13 @@
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6403,13 +6410,13 @@
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6417,13 +6424,13 @@
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6431,13 +6438,13 @@
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6445,13 +6452,13 @@
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6459,13 +6466,13 @@
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6473,13 +6480,13 @@
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6487,13 +6494,13 @@
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6501,13 +6508,13 @@
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -6515,13 +6522,13 @@
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -6529,13 +6536,13 @@
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -6543,13 +6550,13 @@
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -6557,13 +6564,13 @@
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -6571,16 +6578,16 @@
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D277" t="s">
+        <v>426</v>
+      </c>
+      <c r="E277" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D277" t="s">
-        <v>428</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -6588,13 +6595,13 @@
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D278" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>17</v>
@@ -6606,16 +6613,16 @@
         <v>28</v>
       </c>
       <c r="H278" t="s">
+        <v>278</v>
+      </c>
+      <c r="I278" t="s">
         <v>279</v>
       </c>
-      <c r="I278" t="s">
+      <c r="J278" t="s">
         <v>280</v>
       </c>
-      <c r="J278" t="s">
+      <c r="K278" t="s">
         <v>281</v>
-      </c>
-      <c r="K278" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -6623,13 +6630,13 @@
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D279" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>243</v>
@@ -6661,13 +6668,13 @@
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D280" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>243</v>
@@ -6696,13 +6703,13 @@
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D281" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>243</v>
@@ -6731,13 +6738,13 @@
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D282" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>243</v>
@@ -6766,13 +6773,13 @@
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D283" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>243</v>
@@ -6801,13 +6808,13 @@
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D284" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>243</v>
@@ -6836,13 +6843,13 @@
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D285" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>243</v>
@@ -6871,13 +6878,13 @@
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D286" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>17</v>
@@ -6901,7 +6908,7 @@
         <v>247</v>
       </c>
       <c r="L286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -6909,16 +6916,16 @@
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -6926,16 +6933,16 @@
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D288" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
@@ -6943,13 +6950,13 @@
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D289" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
@@ -6973,16 +6980,16 @@
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D290" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G290" t="s">
         <v>244</v>
@@ -7000,7 +7007,7 @@
         <v>247</v>
       </c>
       <c r="L290" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
@@ -7008,16 +7015,16 @@
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D291" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
@@ -7025,13 +7032,13 @@
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D292" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>17</v>
@@ -7055,7 +7062,7 @@
         <v>247</v>
       </c>
       <c r="L292" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -7063,13 +7070,13 @@
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D293" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>243</v>
@@ -7098,13 +7105,13 @@
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D294" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>243</v>
@@ -7136,13 +7143,13 @@
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D295" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>243</v>
@@ -7166,7 +7173,7 @@
         <v>247</v>
       </c>
       <c r="L295" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
@@ -7174,13 +7181,13 @@
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D296" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>243</v>
@@ -7209,13 +7216,13 @@
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D297" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>17</v>
@@ -7244,13 +7251,13 @@
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D298" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>243</v>
@@ -7279,13 +7286,13 @@
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D299" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>17</v>
@@ -7314,13 +7321,13 @@
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D300" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E300" s="6" t="s">
         <v>243</v>
@@ -7329,25 +7336,25 @@
         <v>243</v>
       </c>
       <c r="G300" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H300" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I300" t="s">
         <v>22</v>
       </c>
       <c r="J300" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K300" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L300" t="s">
         <v>31</v>
       </c>
       <c r="M300" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -7355,13 +7362,13 @@
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D301" t="s">
         <v>478</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D301" t="s">
-        <v>479</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>243</v>
@@ -7385,7 +7392,7 @@
         <v>247</v>
       </c>
       <c r="L301" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7412,10 +7419,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7423,7 +7430,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7431,7 +7438,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7439,7 +7446,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7447,7 +7454,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7455,7 +7462,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7463,7 +7470,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7471,7 +7478,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7479,7 +7486,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7487,7 +7494,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7495,7 +7502,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7503,7 +7510,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7511,7 +7518,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7519,7 +7526,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7527,7 +7534,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7535,7 +7542,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -7556,10 +7563,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7567,7 +7574,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7575,7 +7582,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7583,7 +7590,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7591,7 +7598,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7599,7 +7606,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7607,7 +7614,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7615,7 +7622,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7623,7 +7630,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7631,7 +7638,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7639,7 +7646,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7669,13 +7676,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" t="s">
         <v>483</v>
-      </c>
-      <c r="I1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7720,7 +7727,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7734,7 +7741,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7748,7 +7755,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7776,7 +7783,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7790,7 +7797,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7804,7 +7811,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7818,7 +7825,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7832,7 +7839,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7846,7 +7853,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7860,7 +7867,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7896,13 +7903,13 @@
         <v>170406</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7938,13 +7945,13 @@
         <v>312435</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7952,13 +7959,13 @@
         <v>441310</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7966,13 +7973,13 @@
         <v>505418</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7994,13 +8001,13 @@
         <v>588655</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8028,10 +8035,10 @@
         <v>241</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>491</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8059,7 +8066,7 @@
         <v>241</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A55EB1-ED74-4CC1-AAA3-F335C6764A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20182D4C-9D91-4069-8EE4-E891DC3A007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="521">
   <si>
     <t>acount</t>
   </si>
@@ -354,15 +354,36 @@
     <t>8PM7</t>
   </si>
   <si>
+    <t>01-051</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>ZTHJ</t>
+  </si>
+  <si>
+    <t>01-011</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>L2KL</t>
+  </si>
+  <si>
     <t>Allocated for C-Patient</t>
   </si>
   <si>
-    <t>ZTHJ</t>
-  </si>
-  <si>
-    <t>L2KL</t>
-  </si>
-  <si>
     <t>EC16</t>
   </si>
   <si>
@@ -861,6 +882,9 @@
     <t>2023-08-29</t>
   </si>
   <si>
+    <t>13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית</t>
+  </si>
+  <si>
     <t>MMI0</t>
   </si>
   <si>
@@ -939,7 +963,16 @@
     <t>N01G</t>
   </si>
   <si>
-    <t>01-005 NEW</t>
+    <t>01-005</t>
+  </si>
+  <si>
+    <t>2023-12-26</t>
+  </si>
+  <si>
+    <t>2024-07-06</t>
+  </si>
+  <si>
+    <t>2025-01-04</t>
   </si>
   <si>
     <t>גנית: פתח אפליקציה חודש אחרי הגיוס. עלול להשפיע על מועד T2.</t>
@@ -951,6 +984,11 @@
     <t>01-007</t>
   </si>
   <si>
+    <t xml:space="preserve">לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול|
+31/3/24 התחיל תרגול ראשון של קוגניטיבי. נותר לו לפחות עוד כחמישה שבועות לעבוד לפני שיסיים את שלב הלמידה (הערכה אופטימית)
+</t>
+  </si>
+  <si>
     <t>8X3P</t>
   </si>
   <si>
@@ -978,6 +1016,9 @@
     <t>04-161</t>
   </si>
   <si>
+    <t>10/4/24 מתעכב בשלב 2, להתקשר אליו כדי לקדם את הלמידה ומעבר לשלב 3 2024-04-10 05:41|</t>
+  </si>
+  <si>
     <t>DHEP</t>
   </si>
   <si>
@@ -1008,13 +1049,58 @@
     <t>G4OY</t>
   </si>
   <si>
+    <t>01-052</t>
+  </si>
+  <si>
+    <t>2024-04-07</t>
+  </si>
+  <si>
     <t>ZA8C</t>
   </si>
   <si>
+    <t>01-012</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
     <t>TWXC</t>
   </si>
   <si>
+    <t>01-010</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
     <t>XIQA</t>
+  </si>
+  <si>
+    <t>01-013</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
   </si>
   <si>
     <t>E0PJ</t>
@@ -1470,7 +1556,8 @@
     <t>חשבון לצורך פיתוח||
 בדיקה לאחר סידור הבאג|
 ניסיון שני |
-ניסיון שלישי</t>
+ניסיון שלישי
+בדיקת שמירה של הערה2024-04-08 20:40|</t>
   </si>
   <si>
     <t>LPML</t>
@@ -1509,21 +1596,17 @@
     <t>01-047</t>
   </si>
   <si>
-    <t>01-005</t>
-  </si>
-  <si>
     <t>Free for E-patient</t>
   </si>
   <si>
     <t>sheeet</t>
   </si>
   <si>
-    <t>13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לעקוב אחר התקדמות החלק הקוגניטיבי מכיוון שחוזר על תרגול|
-31/3/24 התחיל תרגול ראשון של קוגניטיבי. נותר לו לפחות עוד כחמישה שבועות לעבוד לפני שיסיים את שלב הלמידה (הערכה אופטימית)
-</t>
+    <t>סטודנטית, בתקופה מאד לחוצה, בן זוגה עבר תאונת דרכים (היא טראומטית מתאונת דרכים שעברה בעצמה). גנית2024-04-16 07:16|</t>
+  </si>
+  <si>
+    <t>16/4/24 גנית: התחיל פגישות 3 שבועות לאחר גיוס. לשים לב שעומדים בזמנים. עדכנתי את שחר על כך 
+2024-04-16 06:47|</t>
   </si>
 </sst>
 </file>
@@ -1994,11 +2077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K304" sqref="K304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>132607</v>
       </c>
@@ -2089,7 +2172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>608563</v>
       </c>
@@ -2130,7 +2213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>129098</v>
       </c>
@@ -2165,7 +2248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>125785</v>
       </c>
@@ -2200,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>523678</v>
       </c>
@@ -2241,7 +2324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>994670</v>
       </c>
@@ -2282,7 +2365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>737460</v>
       </c>
@@ -2320,7 +2403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>738266</v>
       </c>
@@ -2354,8 +2437,11 @@
       <c r="K9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>441626</v>
       </c>
@@ -2369,7 +2455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>663230</v>
       </c>
@@ -2406,8 +2492,11 @@
       <c r="L11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>951446</v>
       </c>
@@ -2442,7 +2531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>594572</v>
       </c>
@@ -2456,7 +2545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>243153</v>
       </c>
@@ -2470,7 +2559,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -2494,7 +2583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>797463</v>
       </c>
@@ -2529,7 +2618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>775348</v>
       </c>
@@ -2564,7 +2653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>559121</v>
       </c>
@@ -2577,2115 +2666,2160 @@
       <c r="D17" s="17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D152" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E152" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G152" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H152" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I152" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L152" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D153" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E153" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F153" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G153" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H153" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I153" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J153" t="s">
         <v>21</v>
       </c>
       <c r="K153" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D155" t="s">
+        <v>260</v>
+      </c>
+      <c r="E155" t="s">
+        <v>250</v>
+      </c>
+      <c r="F155" t="s">
+        <v>250</v>
+      </c>
+      <c r="G155" t="s">
+        <v>251</v>
+      </c>
+      <c r="H155" t="s">
         <v>252</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="I155" t="s">
         <v>253</v>
-      </c>
-      <c r="E155" t="s">
-        <v>243</v>
-      </c>
-      <c r="F155" t="s">
-        <v>243</v>
-      </c>
-      <c r="G155" t="s">
-        <v>244</v>
-      </c>
-      <c r="H155" t="s">
-        <v>245</v>
-      </c>
-      <c r="I155" t="s">
-        <v>246</v>
       </c>
       <c r="J155" t="s">
         <v>21</v>
       </c>
       <c r="K155" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D156" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E156" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F156" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G156" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H156" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I156" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J156" t="s">
         <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D157" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D158" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D159" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E159" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F159" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G159" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H159" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I159" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J159" t="s">
         <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
         <v>17</v>
@@ -4694,33 +4828,33 @@
         <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H160" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I160" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J160" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K160" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -4729,33 +4863,33 @@
         <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H161" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I161" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J161" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K161" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D162" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E162" t="s">
         <v>17</v>
@@ -4764,36 +4898,36 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H162" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I162" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J162" t="s">
         <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M162" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D163" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -4802,33 +4936,33 @@
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H163" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I163" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -4837,36 +4971,36 @@
         <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H164" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I164" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="J164" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="K164" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L164" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D165" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E165" t="s">
         <v>17</v>
@@ -4875,39 +5009,39 @@
         <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H165" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="I165" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="J165" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="K165" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L165" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M165" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E166" t="s">
         <v>17</v>
@@ -4916,56 +5050,77 @@
         <v>46</v>
       </c>
       <c r="G166" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H166" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I166" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="J166" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K166" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L166" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M166" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>300</v>
+        <v>308</v>
+      </c>
+      <c r="F167" t="s">
+        <v>46</v>
+      </c>
+      <c r="G167" t="s">
+        <v>309</v>
+      </c>
+      <c r="H167" t="s">
+        <v>99</v>
+      </c>
+      <c r="I167" t="s">
+        <v>310</v>
+      </c>
+      <c r="J167" t="s">
+        <v>87</v>
+      </c>
+      <c r="K167" t="s">
+        <v>311</v>
+      </c>
+      <c r="L167" t="s">
+        <v>52</v>
       </c>
       <c r="M167" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="259.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
         <v>46</v>
@@ -4989,21 +5144,21 @@
         <v>31</v>
       </c>
       <c r="M168" s="19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E169" t="s">
         <v>17</v>
@@ -5012,36 +5167,36 @@
         <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H169" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="I169" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="J169" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K169" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L169" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E170" t="s">
         <v>17</v>
@@ -5064,33 +5219,36 @@
       <c r="K170" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M170" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E172" t="s">
         <v>17</v>
@@ -5102,1506 +5260,1596 @@
         <v>71</v>
       </c>
       <c r="H172" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="I172" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J172" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K172" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L172" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="E174" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174" t="s">
+        <v>337</v>
+      </c>
+      <c r="H174" t="s">
+        <v>107</v>
+      </c>
+      <c r="I174" t="s">
+        <v>108</v>
+      </c>
+      <c r="J174" t="s">
+        <v>88</v>
+      </c>
+      <c r="K174" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="E175" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" t="s">
+        <v>46</v>
+      </c>
+      <c r="G175" t="s">
+        <v>340</v>
+      </c>
+      <c r="H175" t="s">
+        <v>107</v>
+      </c>
+      <c r="I175" t="s">
+        <v>108</v>
+      </c>
+      <c r="J175" t="s">
+        <v>88</v>
+      </c>
+      <c r="K175" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" t="s">
+        <v>46</v>
+      </c>
+      <c r="G176" t="s">
+        <v>343</v>
+      </c>
+      <c r="H176" t="s">
+        <v>344</v>
+      </c>
+      <c r="I176" t="s">
+        <v>345</v>
+      </c>
+      <c r="J176" t="s">
+        <v>311</v>
+      </c>
+      <c r="K176" t="s">
+        <v>346</v>
+      </c>
+      <c r="L176" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="E177" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" t="s">
+        <v>46</v>
+      </c>
+      <c r="G177" t="s">
+        <v>349</v>
+      </c>
+      <c r="H177" t="s">
+        <v>350</v>
+      </c>
+      <c r="I177" t="s">
+        <v>351</v>
+      </c>
+      <c r="J177" t="s">
+        <v>352</v>
+      </c>
+      <c r="K177" t="s">
+        <v>353</v>
+      </c>
+      <c r="L177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D201" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D219" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D246" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D277" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D278" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>17</v>
@@ -6613,278 +6861,278 @@
         <v>28</v>
       </c>
       <c r="H278" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I278" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="J278" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="K278" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D279" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F279" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G279" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H279" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I279" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J279" t="s">
         <v>21</v>
       </c>
       <c r="K279" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L279" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D280" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F280" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G280" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H280" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I280" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J280" t="s">
         <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D281" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F281" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G281" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H281" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I281" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
       </c>
       <c r="K281" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D282" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F282" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G282" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H282" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I282" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J282" t="s">
         <v>21</v>
       </c>
       <c r="K282" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D283" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F283" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G283" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H283" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I283" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J283" t="s">
         <v>21</v>
       </c>
       <c r="K283" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D284" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F284" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G284" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H284" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I284" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J284" t="s">
         <v>21</v>
       </c>
       <c r="K284" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D285" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F285" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G285" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H285" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I285" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J285" t="s">
         <v>21</v>
       </c>
       <c r="K285" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D286" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>17</v>
@@ -6893,152 +7141,152 @@
         <v>17</v>
       </c>
       <c r="G286" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H286" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I286" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J286" t="s">
         <v>21</v>
       </c>
       <c r="K286" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L286" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D288" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D289" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="E289" s="6"/>
       <c r="G289" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H289" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I289" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J289" t="s">
         <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D290" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="G290" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H290" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I290" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J290" t="s">
         <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L290" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D291" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D292" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>17</v>
@@ -7047,182 +7295,182 @@
         <v>17</v>
       </c>
       <c r="G292" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H292" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I292" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J292" t="s">
         <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L292" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D293" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F293" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G293" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H293" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I293" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J293" t="s">
         <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D294" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F294" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G294" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H294" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I294" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
       </c>
       <c r="K294" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L294" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D295" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F295" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G295" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H295" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I295" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
       </c>
       <c r="K295" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L295" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D296" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F296" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G296" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H296" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I296" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J296" t="s">
         <v>21</v>
       </c>
       <c r="K296" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D297" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>17</v>
@@ -7231,68 +7479,68 @@
         <v>17</v>
       </c>
       <c r="G297" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H297" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I297" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
       </c>
       <c r="K297" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D298" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F298" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G298" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H298" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I298" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
       </c>
       <c r="K298" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D299" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>17</v>
@@ -7301,102 +7549,108 @@
         <v>17</v>
       </c>
       <c r="G299" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H299" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I299" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J299" t="s">
         <v>21</v>
       </c>
       <c r="K299" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D300" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F300" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G300" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="H300" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="I300" t="s">
         <v>22</v>
       </c>
       <c r="J300" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="K300" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="L300" t="s">
         <v>31</v>
       </c>
       <c r="M300" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D301" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F301" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G301" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H301" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I301" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J301" t="s">
         <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L301" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M301" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M301" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="377490"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -7419,10 +7673,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7430,7 +7684,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7438,7 +7692,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7446,7 +7700,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7454,7 +7708,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7462,7 +7716,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7470,7 +7724,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7478,7 +7732,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7486,7 +7740,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7494,7 +7748,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7502,7 +7756,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7510,7 +7764,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7518,7 +7772,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7526,7 +7780,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7534,7 +7788,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7542,7 +7796,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7563,10 +7817,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7574,7 +7828,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7582,7 +7836,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7590,7 +7844,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7598,7 +7852,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7606,7 +7860,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7614,7 +7868,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7622,7 +7876,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7630,7 +7884,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7638,7 +7892,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7646,7 +7900,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7676,13 +7930,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="I1" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7727,7 +7981,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7741,7 +7995,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7755,7 +8009,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7783,7 +8037,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7797,7 +8051,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7811,7 +8065,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7825,7 +8079,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7839,7 +8093,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7853,7 +8107,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7867,7 +8121,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7889,10 +8143,10 @@
         <v>159320</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>4</v>
@@ -7903,13 +8157,13 @@
         <v>170406</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7917,13 +8171,13 @@
         <v>213190</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7931,10 +8185,10 @@
         <v>309014</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>4</v>
@@ -7945,13 +8199,13 @@
         <v>312435</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7959,13 +8213,13 @@
         <v>441310</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7973,13 +8227,13 @@
         <v>505418</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>489</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7987,10 +8241,10 @@
         <v>538067</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>4</v>
@@ -8001,13 +8255,13 @@
         <v>588655</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8015,10 +8269,10 @@
         <v>590307</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>4</v>
@@ -8029,16 +8283,16 @@
         <v>645107</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8046,10 +8300,10 @@
         <v>847633</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -8060,13 +8314,13 @@
         <v>872696</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -8074,10 +8328,10 @@
         <v>889142</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -8088,10 +8342,10 @@
         <v>985070</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -8102,10 +8356,10 @@
         <v>988429</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -1512,7 +1512,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hila Askayo</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1538,6 +1538,11 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>blocked</t>
         </is>
       </c>
     </row>
@@ -5940,6 +5945,11 @@
           <t>02-101</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Ganit Goren</t>
+        </is>
+      </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>Hila Askayo</t>
@@ -6087,7 +6097,37 @@
       </c>
       <c r="D182" s="18" t="inlineStr">
         <is>
-          <t>Allocated for E-Patient</t>
+          <t>02-103</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Hila Askayo</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6147,37 @@
       </c>
       <c r="D183" s="18" t="inlineStr">
         <is>
-          <t>Allocated for E-Patient</t>
+          <t>04-190</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Hila Askayo</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6197,37 @@
       </c>
       <c r="D184" s="18" t="inlineStr">
         <is>
-          <t>Allocated for E-Patient</t>
+          <t>01-016</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Hila Askayo</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
         </is>
       </c>
     </row>

--- a/Data/acount and passwords.xlsx
+++ b/Data/acount and passwords.xlsx
@@ -1929,7 +1929,42 @@
       </c>
       <c r="D24" s="17" t="inlineStr">
         <is>
-          <t>Allocated for C-Patient</t>
+          <t>02-102</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Naama Peled-Ironi</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hila Askayo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1984,42 @@
       </c>
       <c r="D25" s="17" t="inlineStr">
         <is>
-          <t>Allocated for C-Patient</t>
+          <t>04-164</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ganit Goren</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hila Askayo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
@@ -1989,7 +2059,42 @@
       </c>
       <c r="D27" s="17" t="inlineStr">
         <is>
-          <t>Allocated for C-Patient</t>
+          <t>01-055</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Helen Israel</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hila Askayo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2024-10-06</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -6230,6 +6335,11 @@
           <t>2025-06-21</t>
         </is>
       </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>9/7/24- מתרגל רק נשימה להתקשר אליו כדי שיגוון תרגול ויתקדם הילה2024-07-09 13:30|</t>
+        </is>
+      </c>
     </row>
     <row r="185" hidden="1">
       <c r="A185" s="2" t="n">
@@ -6247,7 +6357,37 @@
       </c>
       <c r="D185" s="18" t="inlineStr">
         <is>
-          <t>Allocated for E-Patient</t>
+          <t>01-017</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Hila Askayo</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
         </is>
       </c>
     </row>
